--- a/output/飲食業_山形市.xlsx
+++ b/output/飲食業_山形市.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AF9988-81DE-43AA-850D-A593C9D5EAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959CD107-724E-4C8D-9644-3D4388D55114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="4530" windowWidth="28485" windowHeight="14700" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
+    <workbookView xWindow="4500" yWindow="4485" windowWidth="29625" windowHeight="14700" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6848,14 +6848,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -7173,43 +7172,46 @@
   <dimension ref="A1:K764"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="11.375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/output/飲食業_山形市.xlsx
+++ b/output/飲食業_山形市.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8770FDE4-499A-4277-8E81-F3E41AE11255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BF2E40-9930-42D8-B316-ACA5E59A8B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="690" windowWidth="21360" windowHeight="15075" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
+    <workbookView xWindow="12375" yWindow="2100" windowWidth="17745" windowHeight="18195" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="2475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="2477">
   <si>
     <t>業種(飲食業）</t>
   </si>
@@ -7454,6 +7454,12 @@
   </si>
   <si>
     <t>山形市東原町1-11-24</t>
+  </si>
+  <si>
+    <t>焼肉　漢陽苑</t>
+  </si>
+  <si>
+    <t>ヤキニクカンヨウエン</t>
   </si>
 </sst>
 </file>
@@ -7820,10 +7826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA919E-F71A-4DC0-BB86-57B9BD20D6E7}">
-  <dimension ref="A1:K841"/>
+  <dimension ref="A1:K842"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="L530" sqref="L530"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -29563,28 +29569,28 @@
         <v>11</v>
       </c>
       <c r="C726" t="s">
-        <v>2245</v>
+        <v>2475</v>
       </c>
       <c r="D726" t="s">
-        <v>2246</v>
+        <v>2476</v>
       </c>
       <c r="E726">
-        <v>9900810</v>
+        <v>9900039</v>
       </c>
       <c r="F726" t="s">
-        <v>2247</v>
+        <v>2343</v>
       </c>
       <c r="H726" s="1">
-        <v>44522</v>
+        <v>44536</v>
       </c>
       <c r="I726" t="s">
         <v>15</v>
       </c>
       <c r="J726">
-        <v>38.283299589999999</v>
+        <v>38.248708998185897</v>
       </c>
       <c r="K726">
-        <v>140.32873090000001</v>
+        <v>140.32974257729799</v>
       </c>
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.4">
@@ -29592,28 +29598,28 @@
         <v>11</v>
       </c>
       <c r="C727" t="s">
-        <v>490</v>
+        <v>2245</v>
       </c>
       <c r="D727" t="s">
-        <v>491</v>
+        <v>2246</v>
       </c>
       <c r="E727">
-        <v>9900039</v>
+        <v>9900810</v>
       </c>
       <c r="F727" t="s">
-        <v>485</v>
+        <v>2247</v>
       </c>
       <c r="H727" s="1">
-        <v>44397</v>
+        <v>44522</v>
       </c>
       <c r="I727" t="s">
         <v>15</v>
       </c>
       <c r="J727">
-        <v>38.248003750000002</v>
+        <v>38.283299589999999</v>
       </c>
       <c r="K727">
-        <v>140.33021059999999</v>
+        <v>140.32873090000001</v>
       </c>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.4">
@@ -29621,28 +29627,28 @@
         <v>11</v>
       </c>
       <c r="C728" t="s">
-        <v>1385</v>
+        <v>490</v>
       </c>
       <c r="D728" t="s">
-        <v>1386</v>
+        <v>491</v>
       </c>
       <c r="E728">
-        <v>9900031</v>
+        <v>9900039</v>
       </c>
       <c r="F728" t="s">
-        <v>1387</v>
+        <v>485</v>
       </c>
       <c r="H728" s="1">
-        <v>44386</v>
+        <v>44397</v>
       </c>
       <c r="I728" t="s">
         <v>15</v>
       </c>
       <c r="J728">
-        <v>38.246066599999999</v>
+        <v>38.248003750000002</v>
       </c>
       <c r="K728">
-        <v>140.3339478</v>
+        <v>140.33021059999999</v>
       </c>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.4">
@@ -29650,28 +29656,28 @@
         <v>11</v>
       </c>
       <c r="C729" t="s">
-        <v>1312</v>
+        <v>1385</v>
       </c>
       <c r="D729" t="s">
-        <v>1313</v>
+        <v>1386</v>
       </c>
       <c r="E729">
-        <v>9902161</v>
+        <v>9900031</v>
       </c>
       <c r="F729" t="s">
-        <v>2411</v>
+        <v>1387</v>
       </c>
       <c r="H729" s="1">
-        <v>44488</v>
+        <v>44386</v>
       </c>
       <c r="I729" t="s">
         <v>15</v>
       </c>
       <c r="J729">
-        <v>38.309525979999997</v>
+        <v>38.246066599999999</v>
       </c>
       <c r="K729">
-        <v>140.3413961</v>
+        <v>140.3339478</v>
       </c>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.4">
@@ -29679,28 +29685,28 @@
         <v>11</v>
       </c>
       <c r="C730" t="s">
-        <v>239</v>
+        <v>1312</v>
       </c>
       <c r="D730" t="s">
-        <v>240</v>
+        <v>1313</v>
       </c>
       <c r="E730">
-        <v>9900861</v>
+        <v>9902161</v>
       </c>
       <c r="F730" t="s">
-        <v>241</v>
+        <v>2411</v>
       </c>
       <c r="H730" s="1">
-        <v>44468</v>
+        <v>44488</v>
       </c>
       <c r="I730" t="s">
         <v>15</v>
       </c>
       <c r="J730">
-        <v>38.278734900000003</v>
+        <v>38.309525979999997</v>
       </c>
       <c r="K730">
-        <v>140.31258389999999</v>
+        <v>140.3413961</v>
       </c>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.4">
@@ -29708,28 +29714,28 @@
         <v>11</v>
       </c>
       <c r="C731" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="D731" t="s">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="E731">
-        <v>9902482</v>
+        <v>9900861</v>
       </c>
       <c r="F731" t="s">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="H731" s="1">
-        <v>44488</v>
+        <v>44468</v>
       </c>
       <c r="I731" t="s">
         <v>15</v>
       </c>
       <c r="J731">
-        <v>38.249810099999998</v>
+        <v>38.278734900000003</v>
       </c>
       <c r="K731">
-        <v>140.31412180000001</v>
+        <v>140.31258389999999</v>
       </c>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.4">
@@ -29737,31 +29743,28 @@
         <v>11</v>
       </c>
       <c r="C732" t="s">
-        <v>1671</v>
+        <v>104</v>
       </c>
       <c r="D732" t="s">
-        <v>1672</v>
+        <v>105</v>
       </c>
       <c r="E732">
-        <v>9902352</v>
+        <v>9902482</v>
       </c>
       <c r="F732" t="s">
-        <v>2419</v>
-      </c>
-      <c r="G732" t="s">
-        <v>1673</v>
+        <v>106</v>
       </c>
       <c r="H732" s="1">
-        <v>44454</v>
+        <v>44488</v>
       </c>
       <c r="I732" t="s">
         <v>15</v>
       </c>
       <c r="J732">
-        <v>38.229607829999999</v>
+        <v>38.249810099999998</v>
       </c>
       <c r="K732">
-        <v>140.30396400000001</v>
+        <v>140.31412180000001</v>
       </c>
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.4">
@@ -29769,28 +29772,31 @@
         <v>11</v>
       </c>
       <c r="C733" t="s">
-        <v>195</v>
+        <v>1671</v>
       </c>
       <c r="D733" t="s">
-        <v>196</v>
+        <v>1672</v>
       </c>
       <c r="E733">
-        <v>9900863</v>
+        <v>9902352</v>
       </c>
       <c r="F733" t="s">
-        <v>197</v>
+        <v>2419</v>
+      </c>
+      <c r="G733" t="s">
+        <v>1673</v>
       </c>
       <c r="H733" s="1">
-        <v>44344</v>
+        <v>44454</v>
       </c>
       <c r="I733" t="s">
         <v>15</v>
       </c>
       <c r="J733">
-        <v>38.272033299999997</v>
+        <v>38.229607829999999</v>
       </c>
       <c r="K733">
-        <v>140.31891899999999</v>
+        <v>140.30396400000001</v>
       </c>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.4">
@@ -29798,28 +29804,28 @@
         <v>11</v>
       </c>
       <c r="C734" t="s">
-        <v>1525</v>
+        <v>195</v>
       </c>
       <c r="D734" t="s">
-        <v>1526</v>
+        <v>196</v>
       </c>
       <c r="E734">
-        <v>9900832</v>
+        <v>9900863</v>
       </c>
       <c r="F734" t="s">
-        <v>1527</v>
+        <v>197</v>
       </c>
       <c r="H734" s="1">
-        <v>44324</v>
+        <v>44344</v>
       </c>
       <c r="I734" t="s">
         <v>15</v>
       </c>
       <c r="J734">
-        <v>38.256300000000003</v>
+        <v>38.272033299999997</v>
       </c>
       <c r="K734">
-        <v>140.3218971</v>
+        <v>140.31891899999999</v>
       </c>
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.4">
@@ -29827,28 +29833,28 @@
         <v>11</v>
       </c>
       <c r="C735" t="s">
-        <v>2161</v>
+        <v>1525</v>
       </c>
       <c r="D735" t="s">
-        <v>2162</v>
+        <v>1526</v>
       </c>
       <c r="E735">
-        <v>9900047</v>
+        <v>9900832</v>
       </c>
       <c r="F735" t="s">
-        <v>2163</v>
+        <v>1527</v>
       </c>
       <c r="H735" s="1">
-        <v>44424</v>
+        <v>44324</v>
       </c>
       <c r="I735" t="s">
         <v>15</v>
       </c>
       <c r="J735">
-        <v>38.255209899999997</v>
+        <v>38.256300000000003</v>
       </c>
       <c r="K735">
-        <v>140.33546899999999</v>
+        <v>140.3218971</v>
       </c>
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.4">
@@ -29856,31 +29862,28 @@
         <v>11</v>
       </c>
       <c r="C736" t="s">
-        <v>883</v>
+        <v>2161</v>
       </c>
       <c r="D736" t="s">
-        <v>884</v>
+        <v>2162</v>
       </c>
       <c r="E736">
-        <v>9900042</v>
+        <v>9900047</v>
       </c>
       <c r="F736" t="s">
-        <v>876</v>
-      </c>
-      <c r="G736" t="s">
-        <v>877</v>
+        <v>2163</v>
       </c>
       <c r="H736" s="1">
-        <v>44324</v>
+        <v>44424</v>
       </c>
       <c r="I736" t="s">
         <v>15</v>
       </c>
       <c r="J736">
-        <v>38.252142499999998</v>
+        <v>38.255209899999997</v>
       </c>
       <c r="K736">
-        <v>140.3393829</v>
+        <v>140.33546899999999</v>
       </c>
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.4">
@@ -29888,28 +29891,31 @@
         <v>11</v>
       </c>
       <c r="C737" t="s">
-        <v>1425</v>
+        <v>883</v>
       </c>
       <c r="D737" t="s">
-        <v>1426</v>
+        <v>884</v>
       </c>
       <c r="E737">
-        <v>9900032</v>
+        <v>9900042</v>
       </c>
       <c r="F737" t="s">
-        <v>1427</v>
+        <v>876</v>
+      </c>
+      <c r="G737" t="s">
+        <v>877</v>
       </c>
       <c r="H737" s="1">
-        <v>44498</v>
+        <v>44324</v>
       </c>
       <c r="I737" t="s">
         <v>15</v>
       </c>
       <c r="J737">
-        <v>38.24665195</v>
+        <v>38.252142499999998</v>
       </c>
       <c r="K737">
-        <v>140.34073549999999</v>
+        <v>140.3393829</v>
       </c>
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.4">
@@ -29917,31 +29923,28 @@
         <v>11</v>
       </c>
       <c r="C738" t="s">
-        <v>154</v>
+        <v>1425</v>
       </c>
       <c r="D738" t="s">
-        <v>155</v>
+        <v>1426</v>
       </c>
       <c r="E738">
-        <v>9900038</v>
+        <v>9900032</v>
       </c>
       <c r="F738" t="s">
-        <v>152</v>
-      </c>
-      <c r="G738" t="s">
-        <v>156</v>
+        <v>1427</v>
       </c>
       <c r="H738" s="1">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="I738" t="s">
         <v>15</v>
       </c>
       <c r="J738">
-        <v>38.247527720000001</v>
+        <v>38.24665195</v>
       </c>
       <c r="K738">
-        <v>140.32851840000001</v>
+        <v>140.34073549999999</v>
       </c>
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.4">
@@ -29949,28 +29952,31 @@
         <v>11</v>
       </c>
       <c r="C739" t="s">
-        <v>2464</v>
+        <v>154</v>
       </c>
       <c r="D739" t="s">
-        <v>2465</v>
+        <v>155</v>
       </c>
       <c r="E739">
-        <v>9902433</v>
+        <v>9900038</v>
       </c>
       <c r="F739" t="s">
-        <v>2466</v>
+        <v>152</v>
+      </c>
+      <c r="G739" t="s">
+        <v>156</v>
       </c>
       <c r="H739" s="1">
-        <v>44533</v>
+        <v>44497</v>
       </c>
       <c r="I739" t="s">
         <v>15</v>
       </c>
       <c r="J739">
-        <v>38.2295856</v>
+        <v>38.247527720000001</v>
       </c>
       <c r="K739">
-        <v>140.3289278</v>
+        <v>140.32851840000001</v>
       </c>
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.4">
@@ -29978,28 +29984,28 @@
         <v>11</v>
       </c>
       <c r="C740" t="s">
-        <v>1731</v>
+        <v>2464</v>
       </c>
       <c r="D740" t="s">
-        <v>1732</v>
+        <v>2465</v>
       </c>
       <c r="E740">
-        <v>9902303</v>
+        <v>9902433</v>
       </c>
       <c r="F740" t="s">
-        <v>1733</v>
+        <v>2466</v>
       </c>
       <c r="H740" s="1">
-        <v>44398</v>
+        <v>44533</v>
       </c>
       <c r="I740" t="s">
         <v>15</v>
       </c>
       <c r="J740">
-        <v>38.170788940000001</v>
+        <v>38.2295856</v>
       </c>
       <c r="K740">
-        <v>140.32991029999999</v>
+        <v>140.3289278</v>
       </c>
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.4">
@@ -30007,28 +30013,28 @@
         <v>11</v>
       </c>
       <c r="C741" t="s">
-        <v>2029</v>
+        <v>1731</v>
       </c>
       <c r="D741" t="s">
-        <v>2030</v>
+        <v>1732</v>
       </c>
       <c r="E741">
-        <v>9900072</v>
+        <v>9902303</v>
       </c>
       <c r="F741" t="s">
-        <v>2031</v>
+        <v>1733</v>
       </c>
       <c r="H741" s="1">
-        <v>44426</v>
+        <v>44398</v>
       </c>
       <c r="I741" t="s">
         <v>15</v>
       </c>
       <c r="J741">
-        <v>38.282726349999997</v>
+        <v>38.170788940000001</v>
       </c>
       <c r="K741">
-        <v>140.35567589999999</v>
+        <v>140.32991029999999</v>
       </c>
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.4">
@@ -30036,31 +30042,28 @@
         <v>11</v>
       </c>
       <c r="C742" t="s">
-        <v>2467</v>
+        <v>2029</v>
       </c>
       <c r="D742" t="s">
-        <v>2468</v>
+        <v>2030</v>
       </c>
       <c r="E742">
-        <v>9902307</v>
+        <v>9900072</v>
       </c>
       <c r="F742" t="s">
-        <v>2469</v>
-      </c>
-      <c r="G742" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="H742" s="1">
-        <v>44532</v>
+        <v>44426</v>
       </c>
       <c r="I742" t="s">
         <v>15</v>
       </c>
       <c r="J742">
-        <v>38.19024082</v>
+        <v>38.282726349999997</v>
       </c>
       <c r="K742">
-        <v>140.31289129999999</v>
+        <v>140.35567589999999</v>
       </c>
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.4">
@@ -30068,31 +30071,31 @@
         <v>11</v>
       </c>
       <c r="C743" t="s">
-        <v>383</v>
+        <v>2467</v>
       </c>
       <c r="D743" t="s">
-        <v>384</v>
+        <v>2468</v>
       </c>
       <c r="E743">
-        <v>9900039</v>
+        <v>9902307</v>
       </c>
       <c r="F743" t="s">
-        <v>378</v>
+        <v>2469</v>
       </c>
       <c r="G743" t="s">
-        <v>379</v>
+        <v>2028</v>
       </c>
       <c r="H743" s="1">
-        <v>44396</v>
+        <v>44532</v>
       </c>
       <c r="I743" t="s">
         <v>15</v>
       </c>
       <c r="J743">
-        <v>38.249536890000002</v>
+        <v>38.19024082</v>
       </c>
       <c r="K743">
-        <v>140.3287053</v>
+        <v>140.31289129999999</v>
       </c>
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.4">
@@ -30100,16 +30103,19 @@
         <v>11</v>
       </c>
       <c r="C744" t="s">
-        <v>2071</v>
+        <v>383</v>
       </c>
       <c r="D744" t="s">
-        <v>2072</v>
+        <v>384</v>
       </c>
       <c r="E744">
-        <v>9900043</v>
+        <v>9900039</v>
       </c>
       <c r="F744" t="s">
-        <v>2073</v>
+        <v>378</v>
+      </c>
+      <c r="G744" t="s">
+        <v>379</v>
       </c>
       <c r="H744" s="1">
         <v>44396</v>
@@ -30118,10 +30124,10 @@
         <v>15</v>
       </c>
       <c r="J744">
-        <v>38.250469379999998</v>
+        <v>38.249536890000002</v>
       </c>
       <c r="K744">
-        <v>140.3374426</v>
+        <v>140.3287053</v>
       </c>
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.4">
@@ -30129,28 +30135,28 @@
         <v>11</v>
       </c>
       <c r="C745" t="s">
-        <v>2470</v>
+        <v>2071</v>
       </c>
       <c r="D745" t="s">
-        <v>2471</v>
+        <v>2072</v>
       </c>
       <c r="E745">
-        <v>9902307</v>
+        <v>9900043</v>
       </c>
       <c r="F745" t="s">
-        <v>2027</v>
+        <v>2073</v>
       </c>
       <c r="H745" s="1">
-        <v>44532</v>
+        <v>44396</v>
       </c>
       <c r="I745" t="s">
         <v>15</v>
       </c>
       <c r="J745">
-        <v>38.190420009999997</v>
+        <v>38.250469379999998</v>
       </c>
       <c r="K745">
-        <v>140.3127867</v>
+        <v>140.3374426</v>
       </c>
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.4">
@@ -30158,28 +30164,28 @@
         <v>11</v>
       </c>
       <c r="C746" t="s">
-        <v>592</v>
+        <v>2470</v>
       </c>
       <c r="D746" t="s">
-        <v>593</v>
+        <v>2471</v>
       </c>
       <c r="E746">
-        <v>9900039</v>
+        <v>9902307</v>
       </c>
       <c r="F746" t="s">
-        <v>585</v>
+        <v>2027</v>
       </c>
       <c r="H746" s="1">
-        <v>44424</v>
+        <v>44532</v>
       </c>
       <c r="I746" t="s">
         <v>15</v>
       </c>
       <c r="J746">
-        <v>38.248705600000001</v>
+        <v>38.190420009999997</v>
       </c>
       <c r="K746">
-        <v>140.32922579999999</v>
+        <v>140.3127867</v>
       </c>
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.4">
@@ -30187,28 +30193,28 @@
         <v>11</v>
       </c>
       <c r="C747" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="D747" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="E747">
         <v>9900039</v>
       </c>
       <c r="F747" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="H747" s="1">
-        <v>44334</v>
+        <v>44424</v>
       </c>
       <c r="I747" t="s">
         <v>15</v>
       </c>
       <c r="J747">
-        <v>38.248499819999999</v>
+        <v>38.248705600000001</v>
       </c>
       <c r="K747">
-        <v>140.32984139999999</v>
+        <v>140.32922579999999</v>
       </c>
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.4">
@@ -30216,31 +30222,28 @@
         <v>11</v>
       </c>
       <c r="C748" t="s">
-        <v>1678</v>
+        <v>573</v>
       </c>
       <c r="D748" t="s">
-        <v>1679</v>
+        <v>574</v>
       </c>
       <c r="E748">
-        <v>9900828</v>
+        <v>9900039</v>
       </c>
       <c r="F748" t="s">
-        <v>1676</v>
-      </c>
-      <c r="G748" t="s">
-        <v>1680</v>
+        <v>570</v>
       </c>
       <c r="H748" s="1">
-        <v>44343</v>
+        <v>44334</v>
       </c>
       <c r="I748" t="s">
         <v>15</v>
       </c>
       <c r="J748">
-        <v>38.247957569999997</v>
+        <v>38.248499819999999</v>
       </c>
       <c r="K748">
-        <v>140.32504460000001</v>
+        <v>140.32984139999999</v>
       </c>
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.4">
@@ -30248,28 +30251,31 @@
         <v>11</v>
       </c>
       <c r="C749" t="s">
-        <v>248</v>
+        <v>1678</v>
       </c>
       <c r="D749" t="s">
-        <v>249</v>
+        <v>1679</v>
       </c>
       <c r="E749">
-        <v>9902432</v>
+        <v>9900828</v>
       </c>
       <c r="F749" t="s">
-        <v>250</v>
+        <v>1676</v>
+      </c>
+      <c r="G749" t="s">
+        <v>1680</v>
       </c>
       <c r="H749" s="1">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="I749" t="s">
         <v>15</v>
       </c>
       <c r="J749">
-        <v>38.234217020000003</v>
+        <v>38.247957569999997</v>
       </c>
       <c r="K749">
-        <v>140.32998559999999</v>
+        <v>140.32504460000001</v>
       </c>
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.4">
@@ -30277,28 +30283,28 @@
         <v>11</v>
       </c>
       <c r="C750" t="s">
-        <v>2269</v>
+        <v>248</v>
       </c>
       <c r="D750" t="s">
-        <v>2270</v>
+        <v>249</v>
       </c>
       <c r="E750">
-        <v>9900053</v>
+        <v>9902432</v>
       </c>
       <c r="F750" t="s">
-        <v>2271</v>
+        <v>250</v>
       </c>
       <c r="H750" s="1">
-        <v>44512</v>
+        <v>44342</v>
       </c>
       <c r="I750" t="s">
         <v>15</v>
       </c>
       <c r="J750">
-        <v>38.262763249999999</v>
+        <v>38.234217020000003</v>
       </c>
       <c r="K750">
-        <v>140.34415730000001</v>
+        <v>140.32998559999999</v>
       </c>
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.4">
@@ -30306,28 +30312,28 @@
         <v>11</v>
       </c>
       <c r="C751" t="s">
-        <v>1272</v>
+        <v>2269</v>
       </c>
       <c r="D751" t="s">
-        <v>1273</v>
+        <v>2270</v>
       </c>
       <c r="E751">
-        <v>9900042</v>
+        <v>9900053</v>
       </c>
       <c r="F751" t="s">
-        <v>1274</v>
+        <v>2271</v>
       </c>
       <c r="H751" s="1">
-        <v>44403</v>
+        <v>44512</v>
       </c>
       <c r="I751" t="s">
         <v>15</v>
       </c>
       <c r="J751">
-        <v>38.252442039999998</v>
+        <v>38.262763249999999</v>
       </c>
       <c r="K751">
-        <v>140.34326970000001</v>
+        <v>140.34415730000001</v>
       </c>
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.4">
@@ -30335,31 +30341,28 @@
         <v>11</v>
       </c>
       <c r="C752" t="s">
-        <v>594</v>
+        <v>1272</v>
       </c>
       <c r="D752" t="s">
-        <v>595</v>
+        <v>1273</v>
       </c>
       <c r="E752">
-        <v>9900039</v>
+        <v>9900042</v>
       </c>
       <c r="F752" t="s">
-        <v>585</v>
-      </c>
-      <c r="G752" t="s">
-        <v>596</v>
+        <v>1274</v>
       </c>
       <c r="H752" s="1">
-        <v>44414</v>
+        <v>44403</v>
       </c>
       <c r="I752" t="s">
         <v>15</v>
       </c>
       <c r="J752">
-        <v>38.248705600000001</v>
+        <v>38.252442039999998</v>
       </c>
       <c r="K752">
-        <v>140.32922579999999</v>
+        <v>140.34326970000001</v>
       </c>
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.4">
@@ -30367,31 +30370,31 @@
         <v>11</v>
       </c>
       <c r="C753" t="s">
-        <v>2300</v>
+        <v>594</v>
       </c>
       <c r="D753" t="s">
-        <v>2301</v>
+        <v>595</v>
       </c>
       <c r="E753">
         <v>9900039</v>
       </c>
       <c r="F753" t="s">
-        <v>2302</v>
+        <v>585</v>
       </c>
       <c r="G753" t="s">
-        <v>477</v>
+        <v>596</v>
       </c>
       <c r="H753" s="1">
-        <v>44510</v>
+        <v>44414</v>
       </c>
       <c r="I753" t="s">
         <v>15</v>
       </c>
       <c r="J753">
-        <v>38.249175800000003</v>
+        <v>38.248705600000001</v>
       </c>
       <c r="K753">
-        <v>140.329577</v>
+        <v>140.32922579999999</v>
       </c>
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.4">
@@ -30399,28 +30402,31 @@
         <v>11</v>
       </c>
       <c r="C754" t="s">
-        <v>2252</v>
+        <v>2300</v>
       </c>
       <c r="D754" t="s">
-        <v>2253</v>
+        <v>2301</v>
       </c>
       <c r="E754">
-        <v>9902463</v>
+        <v>9900039</v>
       </c>
       <c r="F754" t="s">
-        <v>2254</v>
+        <v>2302</v>
+      </c>
+      <c r="G754" t="s">
+        <v>477</v>
       </c>
       <c r="H754" s="1">
-        <v>44522</v>
+        <v>44510</v>
       </c>
       <c r="I754" t="s">
         <v>15</v>
       </c>
       <c r="J754">
-        <v>38.231952290000002</v>
+        <v>38.249175800000003</v>
       </c>
       <c r="K754">
-        <v>140.30576679999999</v>
+        <v>140.329577</v>
       </c>
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.4">
@@ -30428,31 +30434,28 @@
         <v>11</v>
       </c>
       <c r="C755" t="s">
-        <v>411</v>
+        <v>2252</v>
       </c>
       <c r="D755" t="s">
-        <v>412</v>
+        <v>2253</v>
       </c>
       <c r="E755">
-        <v>9900039</v>
+        <v>9902463</v>
       </c>
       <c r="F755" t="s">
-        <v>413</v>
-      </c>
-      <c r="G755" t="s">
-        <v>414</v>
+        <v>2254</v>
       </c>
       <c r="H755" s="1">
-        <v>44414</v>
+        <v>44522</v>
       </c>
       <c r="I755" t="s">
         <v>15</v>
       </c>
       <c r="J755">
-        <v>38.248091530000004</v>
+        <v>38.231952290000002</v>
       </c>
       <c r="K755">
-        <v>140.32907399999999</v>
+        <v>140.30576679999999</v>
       </c>
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.4">
@@ -30460,31 +30463,31 @@
         <v>11</v>
       </c>
       <c r="C756" t="s">
-        <v>2185</v>
+        <v>411</v>
       </c>
       <c r="D756" t="s">
-        <v>2186</v>
+        <v>412</v>
       </c>
       <c r="E756">
-        <v>9900047</v>
+        <v>9900039</v>
       </c>
       <c r="F756" t="s">
-        <v>2187</v>
+        <v>413</v>
       </c>
       <c r="G756" t="s">
-        <v>2188</v>
+        <v>414</v>
       </c>
       <c r="H756" s="1">
-        <v>44484</v>
+        <v>44414</v>
       </c>
       <c r="I756" t="s">
         <v>15</v>
       </c>
       <c r="J756">
-        <v>38.255850899999999</v>
+        <v>38.248091530000004</v>
       </c>
       <c r="K756">
-        <v>140.3374158</v>
+        <v>140.32907399999999</v>
       </c>
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.4">
@@ -30492,28 +30495,31 @@
         <v>11</v>
       </c>
       <c r="C757" t="s">
-        <v>1922</v>
+        <v>2185</v>
       </c>
       <c r="D757" t="s">
-        <v>1923</v>
+        <v>2186</v>
       </c>
       <c r="E757">
-        <v>9902444</v>
+        <v>9900047</v>
       </c>
       <c r="F757" t="s">
-        <v>1924</v>
+        <v>2187</v>
+      </c>
+      <c r="G757" t="s">
+        <v>2188</v>
       </c>
       <c r="H757" s="1">
-        <v>44424</v>
+        <v>44484</v>
       </c>
       <c r="I757" t="s">
         <v>15</v>
       </c>
       <c r="J757">
-        <v>38.2351995</v>
+        <v>38.255850899999999</v>
       </c>
       <c r="K757">
-        <v>140.32404529999999</v>
+        <v>140.3374158</v>
       </c>
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.4">
@@ -30521,28 +30527,28 @@
         <v>11</v>
       </c>
       <c r="C758" t="s">
-        <v>2155</v>
+        <v>1922</v>
       </c>
       <c r="D758" t="s">
-        <v>2156</v>
+        <v>1923</v>
       </c>
       <c r="E758">
-        <v>9900047</v>
+        <v>9902444</v>
       </c>
       <c r="F758" t="s">
-        <v>2157</v>
+        <v>1924</v>
       </c>
       <c r="H758" s="1">
-        <v>44382</v>
+        <v>44424</v>
       </c>
       <c r="I758" t="s">
         <v>15</v>
       </c>
       <c r="J758">
-        <v>38.254041800000003</v>
+        <v>38.2351995</v>
       </c>
       <c r="K758">
-        <v>140.33606589999999</v>
+        <v>140.32404529999999</v>
       </c>
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.4">
@@ -30550,28 +30556,28 @@
         <v>11</v>
       </c>
       <c r="C759" t="s">
-        <v>2351</v>
+        <v>2155</v>
       </c>
       <c r="D759" t="s">
-        <v>1341</v>
+        <v>2156</v>
       </c>
       <c r="E759">
-        <v>9900042</v>
+        <v>9900047</v>
       </c>
       <c r="F759" t="s">
-        <v>876</v>
+        <v>2157</v>
       </c>
       <c r="H759" s="1">
-        <v>44505</v>
+        <v>44382</v>
       </c>
       <c r="I759" t="s">
         <v>15</v>
       </c>
       <c r="J759">
-        <v>38.252142499999998</v>
+        <v>38.254041800000003</v>
       </c>
       <c r="K759">
-        <v>140.3393829</v>
+        <v>140.33606589999999</v>
       </c>
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.4">
@@ -30579,28 +30585,28 @@
         <v>11</v>
       </c>
       <c r="C760" t="s">
-        <v>1340</v>
+        <v>2351</v>
       </c>
       <c r="D760" t="s">
         <v>1341</v>
       </c>
       <c r="E760">
-        <v>9902414</v>
+        <v>9900042</v>
       </c>
       <c r="F760" t="s">
-        <v>1342</v>
+        <v>876</v>
       </c>
       <c r="H760" s="1">
-        <v>44384</v>
+        <v>44505</v>
       </c>
       <c r="I760" t="s">
         <v>15</v>
       </c>
       <c r="J760">
-        <v>38.233733600000001</v>
+        <v>38.252142499999998</v>
       </c>
       <c r="K760">
-        <v>140.33747969999999</v>
+        <v>140.3393829</v>
       </c>
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.4">
@@ -30608,28 +30614,28 @@
         <v>11</v>
       </c>
       <c r="C761" t="s">
-        <v>1708</v>
+        <v>1340</v>
       </c>
       <c r="D761" t="s">
-        <v>1709</v>
+        <v>1341</v>
       </c>
       <c r="E761">
-        <v>9902301</v>
+        <v>9902414</v>
       </c>
       <c r="F761" t="s">
-        <v>1710</v>
+        <v>1342</v>
       </c>
       <c r="H761" s="1">
-        <v>44393</v>
+        <v>44384</v>
       </c>
       <c r="I761" t="s">
         <v>15</v>
       </c>
       <c r="J761">
-        <v>38.168041770000002</v>
+        <v>38.233733600000001</v>
       </c>
       <c r="K761">
-        <v>140.39672719999999</v>
+        <v>140.33747969999999</v>
       </c>
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.4">
@@ -30637,31 +30643,28 @@
         <v>11</v>
       </c>
       <c r="C762" t="s">
-        <v>757</v>
+        <v>1708</v>
       </c>
       <c r="D762" t="s">
-        <v>757</v>
+        <v>1709</v>
       </c>
       <c r="E762">
-        <v>9900039</v>
+        <v>9902301</v>
       </c>
       <c r="F762" t="s">
-        <v>751</v>
-      </c>
-      <c r="G762" t="s">
-        <v>758</v>
+        <v>1710</v>
       </c>
       <c r="H762" s="1">
-        <v>44377</v>
+        <v>44393</v>
       </c>
       <c r="I762" t="s">
         <v>15</v>
       </c>
       <c r="J762">
-        <v>38.246121330000001</v>
+        <v>38.168041770000002</v>
       </c>
       <c r="K762">
-        <v>140.33196860000001</v>
+        <v>140.39672719999999</v>
       </c>
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.4">
@@ -30669,28 +30672,31 @@
         <v>11</v>
       </c>
       <c r="C763" t="s">
-        <v>1684</v>
+        <v>757</v>
       </c>
       <c r="D763" t="s">
-        <v>1685</v>
+        <v>757</v>
       </c>
       <c r="E763">
-        <v>9900828</v>
+        <v>9900039</v>
       </c>
       <c r="F763" t="s">
-        <v>1686</v>
+        <v>751</v>
+      </c>
+      <c r="G763" t="s">
+        <v>758</v>
       </c>
       <c r="H763" s="1">
-        <v>44362</v>
+        <v>44377</v>
       </c>
       <c r="I763" t="s">
         <v>15</v>
       </c>
       <c r="J763">
-        <v>38.247883780000002</v>
+        <v>38.246121330000001</v>
       </c>
       <c r="K763">
-        <v>140.32341510000001</v>
+        <v>140.33196860000001</v>
       </c>
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.4">
@@ -30698,31 +30704,28 @@
         <v>11</v>
       </c>
       <c r="C764" t="s">
-        <v>1068</v>
+        <v>1684</v>
       </c>
       <c r="D764" t="s">
-        <v>1069</v>
+        <v>1685</v>
       </c>
       <c r="E764">
-        <v>9900042</v>
+        <v>9900828</v>
       </c>
       <c r="F764" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G764" t="s">
-        <v>1071</v>
+        <v>1686</v>
       </c>
       <c r="H764" s="1">
-        <v>44351</v>
+        <v>44362</v>
       </c>
       <c r="I764" t="s">
         <v>15</v>
       </c>
       <c r="J764">
-        <v>38.253837169999997</v>
+        <v>38.247883780000002</v>
       </c>
       <c r="K764">
-        <v>140.34053639999999</v>
+        <v>140.32341510000001</v>
       </c>
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.4">
@@ -30730,28 +30733,31 @@
         <v>11</v>
       </c>
       <c r="C765" t="s">
-        <v>2124</v>
+        <v>1068</v>
       </c>
       <c r="D765" t="s">
-        <v>2125</v>
+        <v>1069</v>
       </c>
       <c r="E765">
-        <v>9900044</v>
+        <v>9900042</v>
       </c>
       <c r="F765" t="s">
-        <v>2126</v>
+        <v>1070</v>
+      </c>
+      <c r="G765" t="s">
+        <v>1071</v>
       </c>
       <c r="H765" s="1">
-        <v>44456</v>
+        <v>44351</v>
       </c>
       <c r="I765" t="s">
         <v>15</v>
       </c>
       <c r="J765">
-        <v>38.253167400000002</v>
+        <v>38.253837169999997</v>
       </c>
       <c r="K765">
-        <v>140.3333907</v>
+        <v>140.34053639999999</v>
       </c>
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.4">
@@ -30759,31 +30765,28 @@
         <v>11</v>
       </c>
       <c r="C766" t="s">
-        <v>2046</v>
+        <v>2124</v>
       </c>
       <c r="D766" t="s">
-        <v>2047</v>
+        <v>2125</v>
       </c>
       <c r="E766">
-        <v>9900821</v>
+        <v>9900044</v>
       </c>
       <c r="F766" t="s">
-        <v>2048</v>
-      </c>
-      <c r="G766" t="s">
-        <v>2049</v>
+        <v>2126</v>
       </c>
       <c r="H766" s="1">
-        <v>44452</v>
+        <v>44456</v>
       </c>
       <c r="I766" t="s">
         <v>15</v>
       </c>
       <c r="J766">
-        <v>38.268608880000002</v>
+        <v>38.253167400000002</v>
       </c>
       <c r="K766">
-        <v>140.32925779999999</v>
+        <v>140.3333907</v>
       </c>
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.4">
@@ -30791,28 +30794,31 @@
         <v>11</v>
       </c>
       <c r="C767" t="s">
-        <v>537</v>
+        <v>2046</v>
       </c>
       <c r="D767" t="s">
-        <v>538</v>
+        <v>2047</v>
       </c>
       <c r="E767">
-        <v>9900039</v>
+        <v>9900821</v>
       </c>
       <c r="F767" t="s">
-        <v>530</v>
+        <v>2048</v>
+      </c>
+      <c r="G767" t="s">
+        <v>2049</v>
       </c>
       <c r="H767" s="1">
-        <v>44406</v>
+        <v>44452</v>
       </c>
       <c r="I767" t="s">
         <v>15</v>
       </c>
       <c r="J767">
-        <v>38.248576200000002</v>
+        <v>38.268608880000002</v>
       </c>
       <c r="K767">
-        <v>140.3293391</v>
+        <v>140.32925779999999</v>
       </c>
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.4">
@@ -30820,28 +30826,28 @@
         <v>11</v>
       </c>
       <c r="C768" t="s">
-        <v>2241</v>
+        <v>537</v>
       </c>
       <c r="D768" t="s">
-        <v>2242</v>
+        <v>538</v>
       </c>
       <c r="E768">
-        <v>9902461</v>
+        <v>9900039</v>
       </c>
       <c r="F768" t="s">
-        <v>2243</v>
+        <v>530</v>
       </c>
       <c r="H768" s="1">
-        <v>44516</v>
+        <v>44406</v>
       </c>
       <c r="I768" t="s">
         <v>15</v>
       </c>
       <c r="J768">
-        <v>38.237016359999998</v>
+        <v>38.248576200000002</v>
       </c>
       <c r="K768">
-        <v>140.31029340000001</v>
+        <v>140.3293391</v>
       </c>
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.4">
@@ -30849,28 +30855,28 @@
         <v>11</v>
       </c>
       <c r="C769" t="s">
-        <v>2010</v>
+        <v>2241</v>
       </c>
       <c r="D769" t="s">
-        <v>2011</v>
+        <v>2242</v>
       </c>
       <c r="E769">
-        <v>9900813</v>
+        <v>9902461</v>
       </c>
       <c r="F769" t="s">
-        <v>2012</v>
+        <v>2243</v>
       </c>
       <c r="H769" s="1">
-        <v>44411</v>
+        <v>44516</v>
       </c>
       <c r="I769" t="s">
         <v>15</v>
       </c>
       <c r="J769">
-        <v>38.276726629999999</v>
+        <v>38.237016359999998</v>
       </c>
       <c r="K769">
-        <v>140.32822859999999</v>
+        <v>140.31029340000001</v>
       </c>
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.4">
@@ -30878,28 +30884,28 @@
         <v>11</v>
       </c>
       <c r="C770" t="s">
-        <v>2472</v>
+        <v>2010</v>
       </c>
       <c r="D770" t="s">
-        <v>2473</v>
+        <v>2011</v>
       </c>
       <c r="E770">
-        <v>9900034</v>
+        <v>9900813</v>
       </c>
       <c r="F770" t="s">
-        <v>2474</v>
+        <v>2012</v>
       </c>
       <c r="H770" s="1">
-        <v>44531</v>
+        <v>44411</v>
       </c>
       <c r="I770" t="s">
         <v>15</v>
       </c>
       <c r="J770">
-        <v>38.248993669999997</v>
+        <v>38.276726629999999</v>
       </c>
       <c r="K770">
-        <v>140.34865490000001</v>
+        <v>140.32822859999999</v>
       </c>
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.4">
@@ -30907,28 +30913,28 @@
         <v>11</v>
       </c>
       <c r="C771" t="s">
-        <v>70</v>
+        <v>2472</v>
       </c>
       <c r="D771" t="s">
-        <v>71</v>
+        <v>2473</v>
       </c>
       <c r="E771">
-        <v>9900823</v>
+        <v>9900034</v>
       </c>
       <c r="F771" t="s">
-        <v>72</v>
+        <v>2474</v>
       </c>
       <c r="H771" s="1">
-        <v>44389</v>
+        <v>44531</v>
       </c>
       <c r="I771" t="s">
         <v>15</v>
       </c>
       <c r="J771">
-        <v>38.261162259999999</v>
+        <v>38.248993669999997</v>
       </c>
       <c r="K771">
-        <v>140.32247459999999</v>
+        <v>140.34865490000001</v>
       </c>
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.4">
@@ -30936,28 +30942,28 @@
         <v>11</v>
       </c>
       <c r="C772" t="s">
-        <v>1723</v>
+        <v>70</v>
       </c>
       <c r="D772" t="s">
-        <v>1724</v>
+        <v>71</v>
       </c>
       <c r="E772">
-        <v>9902301</v>
+        <v>9900823</v>
       </c>
       <c r="F772" t="s">
-        <v>1725</v>
+        <v>72</v>
       </c>
       <c r="H772" s="1">
-        <v>44375</v>
+        <v>44389</v>
       </c>
       <c r="I772" t="s">
         <v>15</v>
       </c>
       <c r="J772">
-        <v>38.164485560000003</v>
+        <v>38.261162259999999</v>
       </c>
       <c r="K772">
-        <v>140.39497470000001</v>
+        <v>140.32247459999999</v>
       </c>
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.4">
@@ -30965,28 +30971,28 @@
         <v>11</v>
       </c>
       <c r="C773" t="s">
-        <v>1111</v>
+        <v>1723</v>
       </c>
       <c r="D773" t="s">
-        <v>1112</v>
+        <v>1724</v>
       </c>
       <c r="E773">
-        <v>9900042</v>
+        <v>9902301</v>
       </c>
       <c r="F773" t="s">
-        <v>1113</v>
+        <v>1725</v>
       </c>
       <c r="H773" s="1">
-        <v>44434</v>
+        <v>44375</v>
       </c>
       <c r="I773" t="s">
         <v>15</v>
       </c>
       <c r="J773">
-        <v>38.2535059</v>
+        <v>38.164485560000003</v>
       </c>
       <c r="K773">
-        <v>140.3411207</v>
+        <v>140.39497470000001</v>
       </c>
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.4">
@@ -30994,31 +31000,28 @@
         <v>11</v>
       </c>
       <c r="C774" t="s">
-        <v>960</v>
+        <v>1111</v>
       </c>
       <c r="D774" t="s">
-        <v>961</v>
+        <v>1112</v>
       </c>
       <c r="E774">
         <v>9900042</v>
       </c>
       <c r="F774" t="s">
-        <v>962</v>
-      </c>
-      <c r="G774" t="s">
-        <v>963</v>
+        <v>1113</v>
       </c>
       <c r="H774" s="1">
-        <v>44405</v>
+        <v>44434</v>
       </c>
       <c r="I774" t="s">
         <v>15</v>
       </c>
       <c r="J774">
-        <v>38.251392010000004</v>
+        <v>38.2535059</v>
       </c>
       <c r="K774">
-        <v>140.3407722</v>
+        <v>140.3411207</v>
       </c>
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.4">
@@ -31026,28 +31029,31 @@
         <v>11</v>
       </c>
       <c r="C775" t="s">
-        <v>212</v>
+        <v>960</v>
       </c>
       <c r="D775" t="s">
-        <v>213</v>
+        <v>961</v>
       </c>
       <c r="E775">
-        <v>9900861</v>
+        <v>9900042</v>
       </c>
       <c r="F775" t="s">
-        <v>214</v>
+        <v>962</v>
+      </c>
+      <c r="G775" t="s">
+        <v>963</v>
       </c>
       <c r="H775" s="1">
-        <v>44425</v>
+        <v>44405</v>
       </c>
       <c r="I775" t="s">
         <v>15</v>
       </c>
       <c r="J775">
-        <v>38.277560989999998</v>
+        <v>38.251392010000004</v>
       </c>
       <c r="K775">
-        <v>140.32036450000001</v>
+        <v>140.3407722</v>
       </c>
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.4">
@@ -31055,31 +31061,28 @@
         <v>11</v>
       </c>
       <c r="C776" t="s">
-        <v>2373</v>
+        <v>212</v>
       </c>
       <c r="D776" t="s">
-        <v>2374</v>
+        <v>213</v>
       </c>
       <c r="E776">
-        <v>9900042</v>
+        <v>9900861</v>
       </c>
       <c r="F776" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G776" t="s">
-        <v>2375</v>
+        <v>214</v>
       </c>
       <c r="H776" s="1">
-        <v>44509</v>
+        <v>44425</v>
       </c>
       <c r="I776" t="s">
         <v>15</v>
       </c>
       <c r="J776">
-        <v>38.254135560000002</v>
+        <v>38.277560989999998</v>
       </c>
       <c r="K776">
-        <v>140.343682</v>
+        <v>140.32036450000001</v>
       </c>
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.4">
@@ -31087,28 +31090,31 @@
         <v>11</v>
       </c>
       <c r="C777" t="s">
-        <v>43</v>
+        <v>2373</v>
       </c>
       <c r="D777" t="s">
-        <v>44</v>
+        <v>2374</v>
       </c>
       <c r="E777">
-        <v>9902317</v>
+        <v>9900042</v>
       </c>
       <c r="F777" t="s">
-        <v>45</v>
+        <v>1230</v>
+      </c>
+      <c r="G777" t="s">
+        <v>2375</v>
       </c>
       <c r="H777" s="1">
-        <v>44438</v>
+        <v>44509</v>
       </c>
       <c r="I777" t="s">
         <v>15</v>
       </c>
       <c r="J777">
-        <v>38.192015699999999</v>
+        <v>38.254135560000002</v>
       </c>
       <c r="K777">
-        <v>140.29706329999999</v>
+        <v>140.343682</v>
       </c>
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.4">
@@ -31116,31 +31122,28 @@
         <v>11</v>
       </c>
       <c r="C778" t="s">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="D778" t="s">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="E778">
-        <v>9900039</v>
+        <v>9902317</v>
       </c>
       <c r="F778" t="s">
-        <v>378</v>
-      </c>
-      <c r="G778" t="s">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="H778" s="1">
-        <v>44396</v>
+        <v>44438</v>
       </c>
       <c r="I778" t="s">
         <v>15</v>
       </c>
       <c r="J778">
-        <v>38.249357850000003</v>
+        <v>38.192015699999999</v>
       </c>
       <c r="K778">
-        <v>140.32880660000001</v>
+        <v>140.29706329999999</v>
       </c>
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.4">
@@ -31148,28 +31151,31 @@
         <v>11</v>
       </c>
       <c r="C779" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D779" t="s">
-        <v>499</v>
+        <v>386</v>
       </c>
       <c r="E779">
         <v>9900039</v>
       </c>
       <c r="F779" t="s">
-        <v>500</v>
+        <v>378</v>
+      </c>
+      <c r="G779" t="s">
+        <v>379</v>
       </c>
       <c r="H779" s="1">
-        <v>44350</v>
+        <v>44396</v>
       </c>
       <c r="I779" t="s">
         <v>15</v>
       </c>
       <c r="J779">
-        <v>38.247975500000003</v>
+        <v>38.249357850000003</v>
       </c>
       <c r="K779">
-        <v>140.32996869999999</v>
+        <v>140.32880660000001</v>
       </c>
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.4">
@@ -31177,28 +31183,28 @@
         <v>11</v>
       </c>
       <c r="C780" t="s">
-        <v>832</v>
+        <v>498</v>
       </c>
       <c r="D780" t="s">
-        <v>833</v>
+        <v>499</v>
       </c>
       <c r="E780">
-        <v>9900042</v>
+        <v>9900039</v>
       </c>
       <c r="F780" t="s">
-        <v>834</v>
+        <v>500</v>
       </c>
       <c r="H780" s="1">
-        <v>44370</v>
+        <v>44350</v>
       </c>
       <c r="I780" t="s">
         <v>15</v>
       </c>
       <c r="J780">
-        <v>38.252457249999999</v>
+        <v>38.247975500000003</v>
       </c>
       <c r="K780">
-        <v>140.33814580000001</v>
+        <v>140.32996869999999</v>
       </c>
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.4">
@@ -31206,28 +31212,28 @@
         <v>11</v>
       </c>
       <c r="C781" t="s">
-        <v>1460</v>
+        <v>832</v>
       </c>
       <c r="D781" t="s">
-        <v>1461</v>
+        <v>833</v>
       </c>
       <c r="E781">
-        <v>9902431</v>
+        <v>9900042</v>
       </c>
       <c r="F781" t="s">
-        <v>1462</v>
+        <v>834</v>
       </c>
       <c r="H781" s="1">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="I781" t="s">
         <v>15</v>
       </c>
       <c r="J781">
-        <v>38.22952111</v>
+        <v>38.252457249999999</v>
       </c>
       <c r="K781">
-        <v>140.338346</v>
+        <v>140.33814580000001</v>
       </c>
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.4">
@@ -31235,28 +31241,28 @@
         <v>11</v>
       </c>
       <c r="C782" t="s">
-        <v>1890</v>
+        <v>1460</v>
       </c>
       <c r="D782" t="s">
-        <v>1891</v>
+        <v>1461</v>
       </c>
       <c r="E782">
-        <v>9902413</v>
+        <v>9902431</v>
       </c>
       <c r="F782" t="s">
-        <v>1892</v>
+        <v>1462</v>
       </c>
       <c r="H782" s="1">
-        <v>44439</v>
+        <v>44371</v>
       </c>
       <c r="I782" t="s">
         <v>15</v>
       </c>
       <c r="J782">
-        <v>38.235477799999998</v>
+        <v>38.22952111</v>
       </c>
       <c r="K782">
-        <v>140.3456285</v>
+        <v>140.338346</v>
       </c>
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.4">
@@ -31264,28 +31270,28 @@
         <v>11</v>
       </c>
       <c r="C783" t="s">
-        <v>1969</v>
+        <v>1890</v>
       </c>
       <c r="D783" t="s">
-        <v>1970</v>
+        <v>1891</v>
       </c>
       <c r="E783">
-        <v>9902332</v>
+        <v>9902413</v>
       </c>
       <c r="F783" t="s">
-        <v>1971</v>
+        <v>1892</v>
       </c>
       <c r="H783" s="1">
-        <v>44504</v>
+        <v>44439</v>
       </c>
       <c r="I783" t="s">
         <v>15</v>
       </c>
       <c r="J783">
-        <v>38.216618820000001</v>
+        <v>38.235477799999998</v>
       </c>
       <c r="K783">
-        <v>140.32383300000001</v>
+        <v>140.3456285</v>
       </c>
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.4">
@@ -31293,28 +31299,28 @@
         <v>11</v>
       </c>
       <c r="C784" t="s">
-        <v>160</v>
+        <v>1969</v>
       </c>
       <c r="D784" t="s">
-        <v>161</v>
+        <v>1970</v>
       </c>
       <c r="E784">
-        <v>9900038</v>
+        <v>9902332</v>
       </c>
       <c r="F784" t="s">
-        <v>162</v>
+        <v>1971</v>
       </c>
       <c r="H784" s="1">
-        <v>44424</v>
+        <v>44504</v>
       </c>
       <c r="I784" t="s">
         <v>15</v>
       </c>
       <c r="J784">
-        <v>38.247690079999998</v>
+        <v>38.216618820000001</v>
       </c>
       <c r="K784">
-        <v>140.32849279999999</v>
+        <v>140.32383300000001</v>
       </c>
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.4">
@@ -31322,28 +31328,28 @@
         <v>11</v>
       </c>
       <c r="C785" t="s">
-        <v>1773</v>
+        <v>160</v>
       </c>
       <c r="D785" t="s">
-        <v>1774</v>
+        <v>161</v>
       </c>
       <c r="E785">
-        <v>9902175</v>
+        <v>9900038</v>
       </c>
       <c r="F785" t="s">
-        <v>2421</v>
+        <v>162</v>
       </c>
       <c r="H785" s="1">
-        <v>44412</v>
+        <v>44424</v>
       </c>
       <c r="I785" t="s">
         <v>15</v>
       </c>
       <c r="J785">
-        <v>38.334019099999999</v>
+        <v>38.247690079999998</v>
       </c>
       <c r="K785">
-        <v>140.31487799999999</v>
+        <v>140.32849279999999</v>
       </c>
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.4">
@@ -31351,28 +31357,28 @@
         <v>11</v>
       </c>
       <c r="C786" t="s">
-        <v>2281</v>
+        <v>1773</v>
       </c>
       <c r="D786" t="s">
-        <v>2282</v>
+        <v>1774</v>
       </c>
       <c r="E786">
-        <v>9902447</v>
+        <v>9902175</v>
       </c>
       <c r="F786" t="s">
-        <v>2283</v>
+        <v>2421</v>
       </c>
       <c r="H786" s="1">
-        <v>44522</v>
+        <v>44412</v>
       </c>
       <c r="I786" t="s">
         <v>15</v>
       </c>
       <c r="J786">
-        <v>38.224062859999997</v>
+        <v>38.334019099999999</v>
       </c>
       <c r="K786">
-        <v>140.32138359999999</v>
+        <v>140.31487799999999</v>
       </c>
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.4">
@@ -31380,31 +31386,28 @@
         <v>11</v>
       </c>
       <c r="C787" t="s">
-        <v>2167</v>
+        <v>2281</v>
       </c>
       <c r="D787" t="s">
-        <v>2168</v>
+        <v>2282</v>
       </c>
       <c r="E787">
-        <v>9900047</v>
+        <v>9902447</v>
       </c>
       <c r="F787" t="s">
-        <v>2166</v>
-      </c>
-      <c r="G787" t="s">
-        <v>2169</v>
+        <v>2283</v>
       </c>
       <c r="H787" s="1">
-        <v>44424</v>
+        <v>44522</v>
       </c>
       <c r="I787" t="s">
         <v>15</v>
       </c>
       <c r="J787">
-        <v>38.254581360000003</v>
+        <v>38.224062859999997</v>
       </c>
       <c r="K787">
-        <v>140.33854779999999</v>
+        <v>140.32138359999999</v>
       </c>
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.4">
@@ -31412,28 +31415,31 @@
         <v>11</v>
       </c>
       <c r="C788" t="s">
-        <v>1198</v>
+        <v>2167</v>
       </c>
       <c r="D788" t="s">
-        <v>1199</v>
+        <v>2168</v>
       </c>
       <c r="E788">
-        <v>9900042</v>
+        <v>9900047</v>
       </c>
       <c r="F788" t="s">
-        <v>1200</v>
+        <v>2166</v>
+      </c>
+      <c r="G788" t="s">
+        <v>2169</v>
       </c>
       <c r="H788" s="1">
-        <v>44466</v>
+        <v>44424</v>
       </c>
       <c r="I788" t="s">
         <v>15</v>
       </c>
       <c r="J788">
-        <v>38.254081800000002</v>
+        <v>38.254581360000003</v>
       </c>
       <c r="K788">
-        <v>140.3430401</v>
+        <v>140.33854779999999</v>
       </c>
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.4">
@@ -31441,31 +31447,28 @@
         <v>11</v>
       </c>
       <c r="C789" t="s">
-        <v>2089</v>
+        <v>1198</v>
       </c>
       <c r="D789" t="s">
-        <v>2090</v>
+        <v>1199</v>
       </c>
       <c r="E789">
-        <v>9900043</v>
+        <v>9900042</v>
       </c>
       <c r="F789" t="s">
-        <v>2091</v>
-      </c>
-      <c r="G789" t="s">
-        <v>2092</v>
+        <v>1200</v>
       </c>
       <c r="H789" s="1">
-        <v>44482</v>
+        <v>44466</v>
       </c>
       <c r="I789" t="s">
         <v>15</v>
       </c>
       <c r="J789">
-        <v>38.251471100000003</v>
+        <v>38.254081800000002</v>
       </c>
       <c r="K789">
-        <v>140.33859570000001</v>
+        <v>140.3430401</v>
       </c>
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.4">
@@ -31473,31 +31476,31 @@
         <v>11</v>
       </c>
       <c r="C790" t="s">
-        <v>1268</v>
+        <v>2089</v>
       </c>
       <c r="D790" t="s">
-        <v>1269</v>
+        <v>2090</v>
       </c>
       <c r="E790">
-        <v>9900042</v>
+        <v>9900043</v>
       </c>
       <c r="F790" t="s">
-        <v>1270</v>
+        <v>2091</v>
       </c>
       <c r="G790" t="s">
-        <v>1271</v>
+        <v>2092</v>
       </c>
       <c r="H790" s="1">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="I790" t="s">
         <v>15</v>
       </c>
       <c r="J790">
-        <v>38.254684339999997</v>
+        <v>38.251471100000003</v>
       </c>
       <c r="K790">
-        <v>140.3430195</v>
+        <v>140.33859570000001</v>
       </c>
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.4">
@@ -31505,31 +31508,31 @@
         <v>11</v>
       </c>
       <c r="C791" t="s">
-        <v>1072</v>
+        <v>1268</v>
       </c>
       <c r="D791" t="s">
-        <v>1073</v>
+        <v>1269</v>
       </c>
       <c r="E791">
         <v>9900042</v>
       </c>
       <c r="F791" t="s">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="G791" t="s">
-        <v>1074</v>
+        <v>1271</v>
       </c>
       <c r="H791" s="1">
-        <v>44348</v>
+        <v>44412</v>
       </c>
       <c r="I791" t="s">
         <v>15</v>
       </c>
       <c r="J791">
-        <v>38.253713959999999</v>
+        <v>38.254684339999997</v>
       </c>
       <c r="K791">
-        <v>140.34046000000001</v>
+        <v>140.3430195</v>
       </c>
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.4">
@@ -31537,31 +31540,31 @@
         <v>11</v>
       </c>
       <c r="C792" t="s">
-        <v>1093</v>
+        <v>1072</v>
       </c>
       <c r="D792" t="s">
-        <v>1094</v>
+        <v>1073</v>
       </c>
       <c r="E792">
         <v>9900042</v>
       </c>
       <c r="F792" t="s">
-        <v>1088</v>
+        <v>1070</v>
       </c>
       <c r="G792" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="H792" s="1">
-        <v>44487</v>
+        <v>44348</v>
       </c>
       <c r="I792" t="s">
         <v>15</v>
       </c>
       <c r="J792">
-        <v>38.25375614</v>
+        <v>38.253713959999999</v>
       </c>
       <c r="K792">
-        <v>140.34133109999999</v>
+        <v>140.34046000000001</v>
       </c>
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.4">
@@ -31569,31 +31572,31 @@
         <v>11</v>
       </c>
       <c r="C793" t="s">
-        <v>563</v>
+        <v>1093</v>
       </c>
       <c r="D793" t="s">
-        <v>564</v>
+        <v>1094</v>
       </c>
       <c r="E793">
-        <v>9900039</v>
+        <v>9900042</v>
       </c>
       <c r="F793" t="s">
-        <v>561</v>
+        <v>1088</v>
       </c>
       <c r="G793" t="s">
-        <v>565</v>
+        <v>1089</v>
       </c>
       <c r="H793" s="1">
-        <v>44453</v>
+        <v>44487</v>
       </c>
       <c r="I793" t="s">
         <v>15</v>
       </c>
       <c r="J793">
-        <v>38.24855505</v>
+        <v>38.25375614</v>
       </c>
       <c r="K793">
-        <v>140.32947440000001</v>
+        <v>140.34133109999999</v>
       </c>
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.4">
@@ -31601,31 +31604,31 @@
         <v>11</v>
       </c>
       <c r="C794" t="s">
-        <v>309</v>
+        <v>563</v>
       </c>
       <c r="D794" t="s">
-        <v>309</v>
+        <v>564</v>
       </c>
       <c r="E794">
         <v>9900039</v>
       </c>
       <c r="F794" t="s">
-        <v>308</v>
+        <v>561</v>
       </c>
       <c r="G794" t="s">
-        <v>310</v>
+        <v>565</v>
       </c>
       <c r="H794" s="1">
-        <v>44488</v>
+        <v>44453</v>
       </c>
       <c r="I794" t="s">
         <v>15</v>
       </c>
       <c r="J794">
-        <v>38.24952862</v>
+        <v>38.24855505</v>
       </c>
       <c r="K794">
-        <v>140.33058149999999</v>
+        <v>140.32947440000001</v>
       </c>
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.4">
@@ -31633,28 +31636,31 @@
         <v>11</v>
       </c>
       <c r="C795" t="s">
-        <v>1117</v>
+        <v>309</v>
       </c>
       <c r="D795" t="s">
-        <v>1118</v>
+        <v>309</v>
       </c>
       <c r="E795">
-        <v>9900042</v>
+        <v>9900039</v>
       </c>
       <c r="F795" t="s">
-        <v>1119</v>
+        <v>308</v>
+      </c>
+      <c r="G795" t="s">
+        <v>310</v>
       </c>
       <c r="H795" s="1">
-        <v>44424</v>
+        <v>44488</v>
       </c>
       <c r="I795" t="s">
         <v>15</v>
       </c>
       <c r="J795">
-        <v>38.253487900000003</v>
+        <v>38.24952862</v>
       </c>
       <c r="K795">
-        <v>140.34141049999999</v>
+        <v>140.33058149999999</v>
       </c>
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.4">
@@ -31662,31 +31668,28 @@
         <v>11</v>
       </c>
       <c r="C796" t="s">
-        <v>1079</v>
+        <v>1117</v>
       </c>
       <c r="D796" t="s">
-        <v>1080</v>
+        <v>1118</v>
       </c>
       <c r="E796">
         <v>9900042</v>
       </c>
       <c r="F796" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G796" t="s">
-        <v>1081</v>
+        <v>1119</v>
       </c>
       <c r="H796" s="1">
-        <v>44490</v>
+        <v>44424</v>
       </c>
       <c r="I796" t="s">
         <v>15</v>
       </c>
       <c r="J796">
-        <v>38.254132640000002</v>
+        <v>38.253487900000003</v>
       </c>
       <c r="K796">
-        <v>140.34149009999999</v>
+        <v>140.34141049999999</v>
       </c>
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.4">
@@ -31694,31 +31697,31 @@
         <v>11</v>
       </c>
       <c r="C797" t="s">
-        <v>1181</v>
+        <v>1079</v>
       </c>
       <c r="D797" t="s">
-        <v>1182</v>
+        <v>1080</v>
       </c>
       <c r="E797">
         <v>9900042</v>
       </c>
       <c r="F797" t="s">
-        <v>1183</v>
+        <v>1077</v>
       </c>
       <c r="G797" t="s">
-        <v>1184</v>
+        <v>1081</v>
       </c>
       <c r="H797" s="1">
-        <v>44350</v>
+        <v>44490</v>
       </c>
       <c r="I797" t="s">
         <v>15</v>
       </c>
       <c r="J797">
-        <v>38.254486960000001</v>
+        <v>38.254132640000002</v>
       </c>
       <c r="K797">
-        <v>140.3417274</v>
+        <v>140.34149009999999</v>
       </c>
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.4">
@@ -31726,31 +31729,31 @@
         <v>11</v>
       </c>
       <c r="C798" t="s">
-        <v>2423</v>
+        <v>1181</v>
       </c>
       <c r="D798" t="s">
-        <v>987</v>
+        <v>1182</v>
       </c>
       <c r="E798">
         <v>9900042</v>
       </c>
       <c r="F798" t="s">
-        <v>982</v>
+        <v>1183</v>
       </c>
       <c r="G798" t="s">
-        <v>988</v>
+        <v>1184</v>
       </c>
       <c r="H798" s="1">
-        <v>44433</v>
+        <v>44350</v>
       </c>
       <c r="I798" t="s">
         <v>15</v>
       </c>
       <c r="J798">
-        <v>38.25211857</v>
+        <v>38.254486960000001</v>
       </c>
       <c r="K798">
-        <v>140.34064849999999</v>
+        <v>140.3417274</v>
       </c>
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.4">
@@ -31758,31 +31761,31 @@
         <v>11</v>
       </c>
       <c r="C799" t="s">
-        <v>456</v>
+        <v>2423</v>
       </c>
       <c r="D799" t="s">
-        <v>457</v>
+        <v>987</v>
       </c>
       <c r="E799">
-        <v>9900039</v>
+        <v>9900042</v>
       </c>
       <c r="F799" t="s">
-        <v>448</v>
+        <v>982</v>
       </c>
       <c r="G799" t="s">
-        <v>458</v>
+        <v>988</v>
       </c>
       <c r="H799" s="1">
-        <v>44410</v>
+        <v>44433</v>
       </c>
       <c r="I799" t="s">
         <v>15</v>
       </c>
       <c r="J799">
-        <v>38.248322160000001</v>
+        <v>38.25211857</v>
       </c>
       <c r="K799">
-        <v>140.32953370000001</v>
+        <v>140.34064849999999</v>
       </c>
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.4">
@@ -31790,28 +31793,31 @@
         <v>11</v>
       </c>
       <c r="C800" t="s">
-        <v>2452</v>
+        <v>456</v>
       </c>
       <c r="D800" t="s">
-        <v>2452</v>
+        <v>457</v>
       </c>
       <c r="E800">
         <v>9900039</v>
       </c>
       <c r="F800" t="s">
-        <v>2453</v>
+        <v>448</v>
+      </c>
+      <c r="G800" t="s">
+        <v>458</v>
       </c>
       <c r="H800" s="1">
-        <v>44529</v>
+        <v>44410</v>
       </c>
       <c r="I800" t="s">
         <v>15</v>
       </c>
       <c r="J800">
-        <v>38.24882075</v>
+        <v>38.248322160000001</v>
       </c>
       <c r="K800">
-        <v>140.3306705</v>
+        <v>140.32953370000001</v>
       </c>
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.4">
@@ -31819,31 +31825,28 @@
         <v>11</v>
       </c>
       <c r="C801" t="s">
-        <v>367</v>
+        <v>2452</v>
       </c>
       <c r="D801" t="s">
-        <v>368</v>
+        <v>2452</v>
       </c>
       <c r="E801">
         <v>9900039</v>
       </c>
       <c r="F801" t="s">
-        <v>366</v>
-      </c>
-      <c r="G801" t="s">
-        <v>369</v>
+        <v>2453</v>
       </c>
       <c r="H801" s="1">
-        <v>44397</v>
+        <v>44529</v>
       </c>
       <c r="I801" t="s">
         <v>15</v>
       </c>
       <c r="J801">
-        <v>38.249386430000001</v>
+        <v>38.24882075</v>
       </c>
       <c r="K801">
-        <v>140.3293688</v>
+        <v>140.3306705</v>
       </c>
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.4">
@@ -31851,31 +31854,31 @@
         <v>11</v>
       </c>
       <c r="C802" t="s">
-        <v>554</v>
+        <v>367</v>
       </c>
       <c r="D802" t="s">
-        <v>554</v>
+        <v>368</v>
       </c>
       <c r="E802">
-        <v>9900827</v>
+        <v>9900039</v>
       </c>
       <c r="F802" t="s">
-        <v>553</v>
+        <v>366</v>
       </c>
       <c r="G802" t="s">
-        <v>555</v>
+        <v>369</v>
       </c>
       <c r="H802" s="1">
-        <v>44343</v>
+        <v>44397</v>
       </c>
       <c r="I802" t="s">
         <v>15</v>
       </c>
       <c r="J802">
-        <v>38.248376479999997</v>
+        <v>38.249386430000001</v>
       </c>
       <c r="K802">
-        <v>140.32974129999999</v>
+        <v>140.3293688</v>
       </c>
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.4">
@@ -31883,31 +31886,31 @@
         <v>11</v>
       </c>
       <c r="C803" t="s">
-        <v>1554</v>
+        <v>554</v>
       </c>
       <c r="D803" t="s">
-        <v>1554</v>
+        <v>554</v>
       </c>
       <c r="E803">
         <v>9900827</v>
       </c>
       <c r="F803" t="s">
-        <v>1542</v>
+        <v>553</v>
       </c>
       <c r="G803" t="s">
-        <v>1548</v>
+        <v>555</v>
       </c>
       <c r="H803" s="1">
-        <v>44324</v>
+        <v>44343</v>
       </c>
       <c r="I803" t="s">
         <v>15</v>
       </c>
       <c r="J803">
-        <v>38.250031909999997</v>
+        <v>38.248376479999997</v>
       </c>
       <c r="K803">
-        <v>140.32718650000001</v>
+        <v>140.32974129999999</v>
       </c>
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.4">
@@ -31915,31 +31918,31 @@
         <v>11</v>
       </c>
       <c r="C804" t="s">
-        <v>677</v>
+        <v>1554</v>
       </c>
       <c r="D804" t="s">
-        <v>678</v>
+        <v>1554</v>
       </c>
       <c r="E804">
-        <v>9900039</v>
+        <v>9900827</v>
       </c>
       <c r="F804" t="s">
-        <v>675</v>
+        <v>1542</v>
       </c>
       <c r="G804" t="s">
-        <v>679</v>
+        <v>1548</v>
       </c>
       <c r="H804" s="1">
-        <v>44343</v>
+        <v>44324</v>
       </c>
       <c r="I804" t="s">
         <v>15</v>
       </c>
       <c r="J804">
-        <v>38.247830700000002</v>
+        <v>38.250031909999997</v>
       </c>
       <c r="K804">
-        <v>140.33064769999999</v>
+        <v>140.32718650000001</v>
       </c>
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.4">
@@ -31947,28 +31950,31 @@
         <v>11</v>
       </c>
       <c r="C805" t="s">
-        <v>2127</v>
+        <v>677</v>
       </c>
       <c r="D805" t="s">
-        <v>2128</v>
+        <v>678</v>
       </c>
       <c r="E805">
-        <v>9900053</v>
+        <v>9900039</v>
       </c>
       <c r="F805" t="s">
-        <v>2129</v>
+        <v>675</v>
+      </c>
+      <c r="G805" t="s">
+        <v>679</v>
       </c>
       <c r="H805" s="1">
-        <v>44403</v>
+        <v>44343</v>
       </c>
       <c r="I805" t="s">
         <v>15</v>
       </c>
       <c r="J805">
-        <v>38.260952060000001</v>
+        <v>38.247830700000002</v>
       </c>
       <c r="K805">
-        <v>140.34705</v>
+        <v>140.33064769999999</v>
       </c>
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.4">
@@ -31976,28 +31982,28 @@
         <v>11</v>
       </c>
       <c r="C806" t="s">
-        <v>1855</v>
+        <v>2127</v>
       </c>
       <c r="D806" t="s">
-        <v>1856</v>
+        <v>2128</v>
       </c>
       <c r="E806">
-        <v>9902445</v>
+        <v>9900053</v>
       </c>
       <c r="F806" t="s">
-        <v>1857</v>
+        <v>2129</v>
       </c>
       <c r="H806" s="1">
-        <v>44473</v>
+        <v>44403</v>
       </c>
       <c r="I806" t="s">
         <v>15</v>
       </c>
       <c r="J806">
-        <v>38.234443040000002</v>
+        <v>38.260952060000001</v>
       </c>
       <c r="K806">
-        <v>140.32164900000001</v>
+        <v>140.34705</v>
       </c>
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.4">
@@ -32005,31 +32011,28 @@
         <v>11</v>
       </c>
       <c r="C807" t="s">
-        <v>2328</v>
+        <v>1855</v>
       </c>
       <c r="D807" t="s">
-        <v>2328</v>
+        <v>1856</v>
       </c>
       <c r="E807">
-        <v>9900039</v>
+        <v>9902445</v>
       </c>
       <c r="F807" t="s">
-        <v>609</v>
-      </c>
-      <c r="G807" t="s">
-        <v>2329</v>
+        <v>1857</v>
       </c>
       <c r="H807" s="1">
-        <v>44512</v>
+        <v>44473</v>
       </c>
       <c r="I807" t="s">
         <v>15</v>
       </c>
       <c r="J807">
-        <v>38.248721840000002</v>
+        <v>38.234443040000002</v>
       </c>
       <c r="K807">
-        <v>140.3301366</v>
+        <v>140.32164900000001</v>
       </c>
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.4">
@@ -32037,28 +32040,31 @@
         <v>11</v>
       </c>
       <c r="C808" t="s">
-        <v>856</v>
+        <v>2328</v>
       </c>
       <c r="D808" t="s">
-        <v>856</v>
+        <v>2328</v>
       </c>
       <c r="E808">
-        <v>9900042</v>
+        <v>9900039</v>
       </c>
       <c r="F808" t="s">
-        <v>854</v>
+        <v>609</v>
+      </c>
+      <c r="G808" t="s">
+        <v>2329</v>
       </c>
       <c r="H808" s="1">
-        <v>44351</v>
+        <v>44512</v>
       </c>
       <c r="I808" t="s">
         <v>15</v>
       </c>
       <c r="J808">
-        <v>38.253659130000003</v>
+        <v>38.248721840000002</v>
       </c>
       <c r="K808">
-        <v>140.3393106</v>
+        <v>140.3301366</v>
       </c>
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.4">
@@ -32066,31 +32072,28 @@
         <v>11</v>
       </c>
       <c r="C809" t="s">
-        <v>615</v>
+        <v>856</v>
       </c>
       <c r="D809" t="s">
-        <v>616</v>
+        <v>856</v>
       </c>
       <c r="E809">
-        <v>9900039</v>
+        <v>9900042</v>
       </c>
       <c r="F809" t="s">
-        <v>611</v>
-      </c>
-      <c r="G809" t="s">
-        <v>331</v>
+        <v>854</v>
       </c>
       <c r="H809" s="1">
-        <v>44489</v>
+        <v>44351</v>
       </c>
       <c r="I809" t="s">
         <v>15</v>
       </c>
       <c r="J809">
-        <v>38.248698619999999</v>
+        <v>38.253659130000003</v>
       </c>
       <c r="K809">
-        <v>140.3301246</v>
+        <v>140.3393106</v>
       </c>
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.4">
@@ -32098,10 +32101,10 @@
         <v>11</v>
       </c>
       <c r="C810" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D810" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E810">
         <v>9900039</v>
@@ -32110,19 +32113,19 @@
         <v>611</v>
       </c>
       <c r="G810" t="s">
-        <v>88</v>
+        <v>331</v>
       </c>
       <c r="H810" s="1">
-        <v>44484</v>
+        <v>44489</v>
       </c>
       <c r="I810" t="s">
         <v>15</v>
       </c>
       <c r="J810">
-        <v>38.248646489999999</v>
+        <v>38.248698619999999</v>
       </c>
       <c r="K810">
-        <v>140.33010110000001</v>
+        <v>140.3301246</v>
       </c>
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.4">
@@ -32130,31 +32133,31 @@
         <v>11</v>
       </c>
       <c r="C811" t="s">
-        <v>311</v>
+        <v>617</v>
       </c>
       <c r="D811" t="s">
-        <v>312</v>
+        <v>618</v>
       </c>
       <c r="E811">
         <v>9900039</v>
       </c>
       <c r="F811" t="s">
-        <v>308</v>
+        <v>611</v>
       </c>
       <c r="G811" t="s">
-        <v>313</v>
+        <v>88</v>
       </c>
       <c r="H811" s="1">
-        <v>44361</v>
+        <v>44484</v>
       </c>
       <c r="I811" t="s">
         <v>15</v>
       </c>
       <c r="J811">
-        <v>38.249579699999998</v>
+        <v>38.248646489999999</v>
       </c>
       <c r="K811">
-        <v>140.3305574</v>
+        <v>140.33010110000001</v>
       </c>
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.4">
@@ -32162,31 +32165,31 @@
         <v>11</v>
       </c>
       <c r="C812" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="D812" t="s">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="E812">
         <v>9900039</v>
       </c>
       <c r="F812" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="G812" t="s">
-        <v>389</v>
+        <v>313</v>
       </c>
       <c r="H812" s="1">
-        <v>44348</v>
+        <v>44361</v>
       </c>
       <c r="I812" t="s">
         <v>15</v>
       </c>
       <c r="J812">
-        <v>38.24935206</v>
+        <v>38.249579699999998</v>
       </c>
       <c r="K812">
-        <v>140.32862349999999</v>
+        <v>140.3305574</v>
       </c>
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.4">
@@ -32194,31 +32197,31 @@
         <v>11</v>
       </c>
       <c r="C813" t="s">
-        <v>516</v>
+        <v>387</v>
       </c>
       <c r="D813" t="s">
-        <v>517</v>
+        <v>388</v>
       </c>
       <c r="E813">
         <v>9900039</v>
       </c>
       <c r="F813" t="s">
-        <v>518</v>
+        <v>378</v>
       </c>
       <c r="G813" t="s">
-        <v>519</v>
+        <v>389</v>
       </c>
       <c r="H813" s="1">
-        <v>44342</v>
+        <v>44348</v>
       </c>
       <c r="I813" t="s">
         <v>15</v>
       </c>
       <c r="J813">
-        <v>38.248488899999998</v>
+        <v>38.24935206</v>
       </c>
       <c r="K813">
-        <v>140.33023549999999</v>
+        <v>140.32862349999999</v>
       </c>
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.4">
@@ -32226,31 +32229,31 @@
         <v>11</v>
       </c>
       <c r="C814" t="s">
-        <v>2065</v>
+        <v>516</v>
       </c>
       <c r="D814" t="s">
-        <v>2065</v>
+        <v>517</v>
       </c>
       <c r="E814">
-        <v>9900043</v>
+        <v>9900039</v>
       </c>
       <c r="F814" t="s">
-        <v>2066</v>
+        <v>518</v>
       </c>
       <c r="G814" t="s">
-        <v>2067</v>
+        <v>519</v>
       </c>
       <c r="H814" s="1">
-        <v>44439</v>
+        <v>44342</v>
       </c>
       <c r="I814" t="s">
         <v>15</v>
       </c>
       <c r="J814">
-        <v>38.251518160000003</v>
+        <v>38.248488899999998</v>
       </c>
       <c r="K814">
-        <v>140.33802729999999</v>
+        <v>140.33023549999999</v>
       </c>
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.4">
@@ -32258,28 +32261,31 @@
         <v>11</v>
       </c>
       <c r="C815" t="s">
-        <v>1726</v>
+        <v>2065</v>
       </c>
       <c r="D815" t="s">
-        <v>1727</v>
+        <v>2065</v>
       </c>
       <c r="E815">
-        <v>9902301</v>
+        <v>9900043</v>
       </c>
       <c r="F815" t="s">
-        <v>1728</v>
+        <v>2066</v>
+      </c>
+      <c r="G815" t="s">
+        <v>2067</v>
       </c>
       <c r="H815" s="1">
-        <v>44455</v>
+        <v>44439</v>
       </c>
       <c r="I815" t="s">
         <v>15</v>
       </c>
       <c r="J815">
-        <v>38.166692599999998</v>
+        <v>38.251518160000003</v>
       </c>
       <c r="K815">
-        <v>140.36551399999999</v>
+        <v>140.33802729999999</v>
       </c>
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.4">
@@ -32287,31 +32293,28 @@
         <v>11</v>
       </c>
       <c r="C816" t="s">
-        <v>2401</v>
+        <v>1726</v>
       </c>
       <c r="D816" t="s">
-        <v>2401</v>
+        <v>1727</v>
       </c>
       <c r="E816">
         <v>9902301</v>
       </c>
       <c r="F816" t="s">
-        <v>2402</v>
-      </c>
-      <c r="G816" t="s">
-        <v>2403</v>
+        <v>1728</v>
       </c>
       <c r="H816" s="1">
-        <v>44508</v>
+        <v>44455</v>
       </c>
       <c r="I816" t="s">
         <v>15</v>
       </c>
       <c r="J816">
-        <v>38.165468500000003</v>
+        <v>38.166692599999998</v>
       </c>
       <c r="K816">
-        <v>140.39883739999999</v>
+        <v>140.36551399999999</v>
       </c>
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.4">
@@ -32319,28 +32322,31 @@
         <v>11</v>
       </c>
       <c r="C817" t="s">
-        <v>1850</v>
+        <v>2401</v>
       </c>
       <c r="D817" t="s">
-        <v>1850</v>
+        <v>2401</v>
       </c>
       <c r="E817">
-        <v>9902445</v>
+        <v>9902301</v>
       </c>
       <c r="F817" t="s">
-        <v>1851</v>
+        <v>2402</v>
+      </c>
+      <c r="G817" t="s">
+        <v>2403</v>
       </c>
       <c r="H817" s="1">
-        <v>44385</v>
+        <v>44508</v>
       </c>
       <c r="I817" t="s">
         <v>15</v>
       </c>
       <c r="J817">
-        <v>38.23540526</v>
+        <v>38.165468500000003</v>
       </c>
       <c r="K817">
-        <v>140.32186479999999</v>
+        <v>140.39883739999999</v>
       </c>
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.4">
@@ -32348,28 +32354,28 @@
         <v>11</v>
       </c>
       <c r="C818" t="s">
-        <v>948</v>
+        <v>1850</v>
       </c>
       <c r="D818" t="s">
-        <v>948</v>
+        <v>1850</v>
       </c>
       <c r="E818">
-        <v>9900042</v>
+        <v>9902445</v>
       </c>
       <c r="F818" t="s">
-        <v>949</v>
+        <v>1851</v>
       </c>
       <c r="H818" s="1">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="I818" t="s">
         <v>15</v>
       </c>
       <c r="J818">
-        <v>38.252012100000002</v>
+        <v>38.23540526</v>
       </c>
       <c r="K818">
-        <v>140.34125019999999</v>
+        <v>140.32186479999999</v>
       </c>
     </row>
     <row r="819" spans="1:11" x14ac:dyDescent="0.4">
@@ -32377,28 +32383,28 @@
         <v>11</v>
       </c>
       <c r="C819" t="s">
-        <v>80</v>
+        <v>948</v>
       </c>
       <c r="D819" t="s">
-        <v>81</v>
+        <v>948</v>
       </c>
       <c r="E819">
-        <v>9900018</v>
+        <v>9900042</v>
       </c>
       <c r="F819" t="s">
-        <v>2408</v>
+        <v>949</v>
       </c>
       <c r="H819" s="1">
-        <v>44407</v>
+        <v>44413</v>
       </c>
       <c r="I819" t="s">
         <v>15</v>
       </c>
       <c r="J819">
-        <v>38.227667799999999</v>
+        <v>38.252012100000002</v>
       </c>
       <c r="K819">
-        <v>140.40487469999999</v>
+        <v>140.34125019999999</v>
       </c>
     </row>
     <row r="820" spans="1:11" x14ac:dyDescent="0.4">
@@ -32406,28 +32412,28 @@
         <v>11</v>
       </c>
       <c r="C820" t="s">
-        <v>2008</v>
+        <v>80</v>
       </c>
       <c r="D820" t="s">
-        <v>2009</v>
+        <v>81</v>
       </c>
       <c r="E820">
-        <v>9900813</v>
+        <v>9900018</v>
       </c>
       <c r="F820" t="s">
-        <v>2005</v>
+        <v>2408</v>
       </c>
       <c r="H820" s="1">
-        <v>44473</v>
+        <v>44407</v>
       </c>
       <c r="I820" t="s">
         <v>15</v>
       </c>
       <c r="J820">
-        <v>38.275722389999999</v>
+        <v>38.227667799999999</v>
       </c>
       <c r="K820">
-        <v>140.3320779</v>
+        <v>140.40487469999999</v>
       </c>
     </row>
     <row r="821" spans="1:11" x14ac:dyDescent="0.4">
@@ -32435,31 +32441,28 @@
         <v>11</v>
       </c>
       <c r="C821" t="s">
-        <v>67</v>
+        <v>2008</v>
       </c>
       <c r="D821" t="s">
-        <v>67</v>
+        <v>2009</v>
       </c>
       <c r="E821">
-        <v>9900818</v>
+        <v>9900813</v>
       </c>
       <c r="F821" t="s">
-        <v>68</v>
-      </c>
-      <c r="G821" t="s">
-        <v>69</v>
+        <v>2005</v>
       </c>
       <c r="H821" s="1">
-        <v>44428</v>
+        <v>44473</v>
       </c>
       <c r="I821" t="s">
         <v>15</v>
       </c>
       <c r="J821">
-        <v>38.285063209999997</v>
+        <v>38.275722389999999</v>
       </c>
       <c r="K821">
-        <v>140.3349327</v>
+        <v>140.3320779</v>
       </c>
     </row>
     <row r="822" spans="1:11" x14ac:dyDescent="0.4">
@@ -32467,28 +32470,31 @@
         <v>11</v>
       </c>
       <c r="C822" t="s">
-        <v>1316</v>
+        <v>67</v>
       </c>
       <c r="D822" t="s">
-        <v>1316</v>
+        <v>67</v>
       </c>
       <c r="E822">
-        <v>9902161</v>
+        <v>9900818</v>
       </c>
       <c r="F822" t="s">
-        <v>1317</v>
+        <v>68</v>
+      </c>
+      <c r="G822" t="s">
+        <v>69</v>
       </c>
       <c r="H822" s="1">
-        <v>44326</v>
+        <v>44428</v>
       </c>
       <c r="I822" t="s">
         <v>15</v>
       </c>
       <c r="J822">
-        <v>38.315239390000002</v>
+        <v>38.285063209999997</v>
       </c>
       <c r="K822">
-        <v>140.35567599999999</v>
+        <v>140.3349327</v>
       </c>
     </row>
     <row r="823" spans="1:11" x14ac:dyDescent="0.4">
@@ -32496,28 +32502,28 @@
         <v>11</v>
       </c>
       <c r="C823" t="s">
-        <v>247</v>
+        <v>1316</v>
       </c>
       <c r="D823" t="s">
-        <v>247</v>
+        <v>1316</v>
       </c>
       <c r="E823">
-        <v>9900813</v>
+        <v>9902161</v>
       </c>
       <c r="F823" t="s">
-        <v>246</v>
+        <v>1317</v>
       </c>
       <c r="H823" s="1">
-        <v>44342</v>
+        <v>44326</v>
       </c>
       <c r="I823" t="s">
         <v>15</v>
       </c>
       <c r="J823">
-        <v>38.233076079999996</v>
+        <v>38.315239390000002</v>
       </c>
       <c r="K823">
-        <v>140.33000430000001</v>
+        <v>140.35567599999999</v>
       </c>
     </row>
     <row r="824" spans="1:11" x14ac:dyDescent="0.4">
@@ -32525,31 +32531,28 @@
         <v>11</v>
       </c>
       <c r="C824" t="s">
-        <v>908</v>
+        <v>247</v>
       </c>
       <c r="D824" t="s">
-        <v>908</v>
+        <v>247</v>
       </c>
       <c r="E824">
-        <v>9900042</v>
+        <v>9900813</v>
       </c>
       <c r="F824" t="s">
-        <v>904</v>
-      </c>
-      <c r="G824" t="s">
-        <v>909</v>
+        <v>246</v>
       </c>
       <c r="H824" s="1">
-        <v>44382</v>
+        <v>44342</v>
       </c>
       <c r="I824" t="s">
         <v>15</v>
       </c>
       <c r="J824">
-        <v>38.252169799999997</v>
+        <v>38.233076079999996</v>
       </c>
       <c r="K824">
-        <v>140.33892299999999</v>
+        <v>140.33000430000001</v>
       </c>
     </row>
     <row r="825" spans="1:11" x14ac:dyDescent="0.4">
@@ -32557,28 +32560,31 @@
         <v>11</v>
       </c>
       <c r="C825" t="s">
-        <v>1687</v>
+        <v>908</v>
       </c>
       <c r="D825" t="s">
-        <v>1688</v>
+        <v>908</v>
       </c>
       <c r="E825">
-        <v>9900828</v>
+        <v>9900042</v>
       </c>
       <c r="F825" t="s">
-        <v>1689</v>
+        <v>904</v>
+      </c>
+      <c r="G825" t="s">
+        <v>909</v>
       </c>
       <c r="H825" s="1">
-        <v>44392</v>
+        <v>44382</v>
       </c>
       <c r="I825" t="s">
         <v>15</v>
       </c>
       <c r="J825">
-        <v>38.247000489999998</v>
+        <v>38.252169799999997</v>
       </c>
       <c r="K825">
-        <v>140.32358110000001</v>
+        <v>140.33892299999999</v>
       </c>
     </row>
     <row r="826" spans="1:11" x14ac:dyDescent="0.4">
@@ -32586,28 +32592,28 @@
         <v>11</v>
       </c>
       <c r="C826" t="s">
-        <v>1534</v>
+        <v>1687</v>
       </c>
       <c r="D826" t="s">
-        <v>1535</v>
+        <v>1688</v>
       </c>
       <c r="E826">
-        <v>9900832</v>
+        <v>9900828</v>
       </c>
       <c r="F826" t="s">
-        <v>1536</v>
+        <v>1689</v>
       </c>
       <c r="H826" s="1">
-        <v>44481</v>
+        <v>44392</v>
       </c>
       <c r="I826" t="s">
         <v>15</v>
       </c>
       <c r="J826">
-        <v>38.262654699999999</v>
+        <v>38.247000489999998</v>
       </c>
       <c r="K826">
-        <v>140.31192039999999</v>
+        <v>140.32358110000001</v>
       </c>
     </row>
     <row r="827" spans="1:11" x14ac:dyDescent="0.4">
@@ -32615,28 +32621,28 @@
         <v>11</v>
       </c>
       <c r="C827" t="s">
-        <v>2109</v>
+        <v>1534</v>
       </c>
       <c r="D827" t="s">
-        <v>2110</v>
+        <v>1535</v>
       </c>
       <c r="E827">
-        <v>9900043</v>
+        <v>9900832</v>
       </c>
       <c r="F827" t="s">
-        <v>2111</v>
+        <v>1536</v>
       </c>
       <c r="H827" s="1">
-        <v>44397</v>
+        <v>44481</v>
       </c>
       <c r="I827" t="s">
         <v>15</v>
       </c>
       <c r="J827">
-        <v>38.25067671</v>
+        <v>38.262654699999999</v>
       </c>
       <c r="K827">
-        <v>140.33837969999999</v>
+        <v>140.31192039999999</v>
       </c>
     </row>
     <row r="828" spans="1:11" x14ac:dyDescent="0.4">
@@ -32644,28 +32650,28 @@
         <v>11</v>
       </c>
       <c r="C828" t="s">
-        <v>46</v>
+        <v>2109</v>
       </c>
       <c r="D828" t="s">
-        <v>47</v>
+        <v>2110</v>
       </c>
       <c r="E828">
-        <v>9902317</v>
+        <v>9900043</v>
       </c>
       <c r="F828" t="s">
-        <v>48</v>
+        <v>2111</v>
       </c>
       <c r="H828" s="1">
-        <v>44350</v>
+        <v>44397</v>
       </c>
       <c r="I828" t="s">
         <v>15</v>
       </c>
       <c r="J828">
-        <v>38.193115499999998</v>
+        <v>38.25067671</v>
       </c>
       <c r="K828">
-        <v>140.29576610000001</v>
+        <v>140.33837969999999</v>
       </c>
     </row>
     <row r="829" spans="1:11" x14ac:dyDescent="0.4">
@@ -32673,28 +32679,28 @@
         <v>11</v>
       </c>
       <c r="C829" t="s">
-        <v>2216</v>
+        <v>46</v>
       </c>
       <c r="D829" t="s">
-        <v>2216</v>
+        <v>47</v>
       </c>
       <c r="E829">
-        <v>9900062</v>
+        <v>9902317</v>
       </c>
       <c r="F829" t="s">
-        <v>2217</v>
+        <v>48</v>
       </c>
       <c r="H829" s="1">
-        <v>44410</v>
+        <v>44350</v>
       </c>
       <c r="I829" t="s">
         <v>15</v>
       </c>
       <c r="J829">
-        <v>38.269660420000001</v>
+        <v>38.193115499999998</v>
       </c>
       <c r="K829">
-        <v>140.35587839999999</v>
+        <v>140.29576610000001</v>
       </c>
     </row>
     <row r="830" spans="1:11" x14ac:dyDescent="0.4">
@@ -32702,31 +32708,28 @@
         <v>11</v>
       </c>
       <c r="C830" t="s">
-        <v>690</v>
+        <v>2216</v>
       </c>
       <c r="D830" t="s">
-        <v>691</v>
+        <v>2216</v>
       </c>
       <c r="E830">
-        <v>9900039</v>
+        <v>9900062</v>
       </c>
       <c r="F830" t="s">
-        <v>692</v>
-      </c>
-      <c r="G830" t="s">
-        <v>693</v>
+        <v>2217</v>
       </c>
       <c r="H830" s="1">
-        <v>44504</v>
+        <v>44410</v>
       </c>
       <c r="I830" t="s">
         <v>15</v>
       </c>
       <c r="J830">
-        <v>38.247272250000002</v>
+        <v>38.269660420000001</v>
       </c>
       <c r="K830">
-        <v>140.3313823</v>
+        <v>140.35587839999999</v>
       </c>
     </row>
     <row r="831" spans="1:11" x14ac:dyDescent="0.4">
@@ -32734,31 +32737,31 @@
         <v>11</v>
       </c>
       <c r="C831" t="s">
-        <v>1051</v>
+        <v>690</v>
       </c>
       <c r="D831" t="s">
-        <v>1052</v>
+        <v>691</v>
       </c>
       <c r="E831">
-        <v>9900042</v>
+        <v>9900039</v>
       </c>
       <c r="F831" t="s">
-        <v>1050</v>
+        <v>692</v>
       </c>
       <c r="G831" t="s">
-        <v>1053</v>
+        <v>693</v>
       </c>
       <c r="H831" s="1">
-        <v>44398</v>
+        <v>44504</v>
       </c>
       <c r="I831" t="s">
         <v>15</v>
       </c>
       <c r="J831">
-        <v>38.252498950000003</v>
+        <v>38.247272250000002</v>
       </c>
       <c r="K831">
-        <v>140.34059600000001</v>
+        <v>140.3313823</v>
       </c>
     </row>
     <row r="832" spans="1:11" x14ac:dyDescent="0.4">
@@ -32766,28 +32769,31 @@
         <v>11</v>
       </c>
       <c r="C832" t="s">
-        <v>1656</v>
+        <v>1051</v>
       </c>
       <c r="D832" t="s">
-        <v>1657</v>
+        <v>1052</v>
       </c>
       <c r="E832">
-        <v>9902435</v>
+        <v>9900042</v>
       </c>
       <c r="F832" t="s">
-        <v>1658</v>
+        <v>1050</v>
+      </c>
+      <c r="G832" t="s">
+        <v>1053</v>
       </c>
       <c r="H832" s="1">
-        <v>44496</v>
+        <v>44398</v>
       </c>
       <c r="I832" t="s">
         <v>15</v>
       </c>
       <c r="J832">
-        <v>38.222701600000001</v>
+        <v>38.252498950000003</v>
       </c>
       <c r="K832">
-        <v>140.32914160000001</v>
+        <v>140.34059600000001</v>
       </c>
     </row>
     <row r="833" spans="1:11" x14ac:dyDescent="0.4">
@@ -32795,28 +32801,28 @@
         <v>11</v>
       </c>
       <c r="C833" t="s">
-        <v>2118</v>
+        <v>1656</v>
       </c>
       <c r="D833" t="s">
-        <v>2119</v>
+        <v>1657</v>
       </c>
       <c r="E833">
-        <v>9900044</v>
+        <v>9902435</v>
       </c>
       <c r="F833" t="s">
-        <v>2120</v>
+        <v>1658</v>
       </c>
       <c r="H833" s="1">
-        <v>44361</v>
+        <v>44496</v>
       </c>
       <c r="I833" t="s">
         <v>15</v>
       </c>
       <c r="J833">
-        <v>38.250223030000001</v>
+        <v>38.222701600000001</v>
       </c>
       <c r="K833">
-        <v>140.33397289999999</v>
+        <v>140.32914160000001</v>
       </c>
     </row>
     <row r="834" spans="1:11" x14ac:dyDescent="0.4">
@@ -32824,31 +32830,28 @@
         <v>11</v>
       </c>
       <c r="C834" t="s">
-        <v>2367</v>
+        <v>2118</v>
       </c>
       <c r="D834" t="s">
-        <v>2368</v>
+        <v>2119</v>
       </c>
       <c r="E834">
-        <v>9900042</v>
+        <v>9900044</v>
       </c>
       <c r="F834" t="s">
-        <v>2369</v>
-      </c>
-      <c r="G834" t="s">
-        <v>2370</v>
+        <v>2120</v>
       </c>
       <c r="H834" s="1">
-        <v>44505</v>
+        <v>44361</v>
       </c>
       <c r="I834" t="s">
         <v>15</v>
       </c>
       <c r="J834">
-        <v>38.254864689999998</v>
+        <v>38.250223030000001</v>
       </c>
       <c r="K834">
-        <v>140.3417843</v>
+        <v>140.33397289999999</v>
       </c>
     </row>
     <row r="835" spans="1:11" x14ac:dyDescent="0.4">
@@ -32856,28 +32859,31 @@
         <v>11</v>
       </c>
       <c r="C835" t="s">
-        <v>1741</v>
+        <v>2367</v>
       </c>
       <c r="D835" t="s">
-        <v>1742</v>
+        <v>2368</v>
       </c>
       <c r="E835">
-        <v>9900046</v>
+        <v>9900042</v>
       </c>
       <c r="F835" t="s">
-        <v>1743</v>
+        <v>2369</v>
+      </c>
+      <c r="G835" t="s">
+        <v>2370</v>
       </c>
       <c r="H835" s="1">
-        <v>44428</v>
+        <v>44505</v>
       </c>
       <c r="I835" t="s">
         <v>15</v>
       </c>
       <c r="J835">
-        <v>38.257156199999997</v>
+        <v>38.254864689999998</v>
       </c>
       <c r="K835">
-        <v>140.33488120000001</v>
+        <v>140.3417843</v>
       </c>
     </row>
     <row r="836" spans="1:11" x14ac:dyDescent="0.4">
@@ -32885,31 +32891,28 @@
         <v>11</v>
       </c>
       <c r="C836" t="s">
-        <v>1142</v>
+        <v>1741</v>
       </c>
       <c r="D836" t="s">
-        <v>1143</v>
+        <v>1742</v>
       </c>
       <c r="E836">
-        <v>9900042</v>
+        <v>9900046</v>
       </c>
       <c r="F836" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G836" t="s">
-        <v>1144</v>
+        <v>1743</v>
       </c>
       <c r="H836" s="1">
-        <v>44434</v>
+        <v>44428</v>
       </c>
       <c r="I836" t="s">
         <v>15</v>
       </c>
       <c r="J836">
-        <v>38.253317019999997</v>
+        <v>38.257156199999997</v>
       </c>
       <c r="K836">
-        <v>140.34205</v>
+        <v>140.33488120000001</v>
       </c>
     </row>
     <row r="837" spans="1:11" x14ac:dyDescent="0.4">
@@ -32917,31 +32920,31 @@
         <v>11</v>
       </c>
       <c r="C837" t="s">
-        <v>1243</v>
+        <v>1142</v>
       </c>
       <c r="D837" t="s">
-        <v>1244</v>
+        <v>1143</v>
       </c>
       <c r="E837">
         <v>9900042</v>
       </c>
       <c r="F837" t="s">
-        <v>1230</v>
+        <v>1141</v>
       </c>
       <c r="G837" t="s">
-        <v>1245</v>
+        <v>1144</v>
       </c>
       <c r="H837" s="1">
-        <v>44358</v>
+        <v>44434</v>
       </c>
       <c r="I837" t="s">
         <v>15</v>
       </c>
       <c r="J837">
-        <v>38.254184000000002</v>
+        <v>38.253317019999997</v>
       </c>
       <c r="K837">
-        <v>140.34366790000001</v>
+        <v>140.34205</v>
       </c>
     </row>
     <row r="838" spans="1:11" x14ac:dyDescent="0.4">
@@ -32949,28 +32952,31 @@
         <v>11</v>
       </c>
       <c r="C838" t="s">
-        <v>509</v>
+        <v>1243</v>
       </c>
       <c r="D838" t="s">
-        <v>510</v>
+        <v>1244</v>
       </c>
       <c r="E838">
-        <v>9900039</v>
+        <v>9900042</v>
       </c>
       <c r="F838" t="s">
-        <v>505</v>
+        <v>1230</v>
+      </c>
+      <c r="G838" t="s">
+        <v>1245</v>
       </c>
       <c r="H838" s="1">
-        <v>44369</v>
+        <v>44358</v>
       </c>
       <c r="I838" t="s">
         <v>15</v>
       </c>
       <c r="J838">
-        <v>38.248247800000001</v>
+        <v>38.254184000000002</v>
       </c>
       <c r="K838">
-        <v>140.33022460000001</v>
+        <v>140.34366790000001</v>
       </c>
     </row>
     <row r="839" spans="1:11" x14ac:dyDescent="0.4">
@@ -32978,28 +32984,28 @@
         <v>11</v>
       </c>
       <c r="C839" t="s">
-        <v>1603</v>
+        <v>509</v>
       </c>
       <c r="D839" t="s">
-        <v>1604</v>
+        <v>510</v>
       </c>
       <c r="E839">
-        <v>9902339</v>
+        <v>9900039</v>
       </c>
       <c r="F839" t="s">
-        <v>1605</v>
+        <v>505</v>
       </c>
       <c r="H839" s="1">
-        <v>44446</v>
+        <v>44369</v>
       </c>
       <c r="I839" t="s">
         <v>15</v>
       </c>
       <c r="J839">
-        <v>38.208830349999999</v>
+        <v>38.248247800000001</v>
       </c>
       <c r="K839">
-        <v>140.31758120000001</v>
+        <v>140.33022460000001</v>
       </c>
     </row>
     <row r="840" spans="1:11" x14ac:dyDescent="0.4">
@@ -33007,28 +33013,28 @@
         <v>11</v>
       </c>
       <c r="C840" t="s">
-        <v>1457</v>
+        <v>1603</v>
       </c>
       <c r="D840" t="s">
-        <v>1458</v>
+        <v>1604</v>
       </c>
       <c r="E840">
-        <v>9902402</v>
+        <v>9902339</v>
       </c>
       <c r="F840" t="s">
-        <v>1459</v>
+        <v>1605</v>
       </c>
       <c r="H840" s="1">
-        <v>44382</v>
+        <v>44446</v>
       </c>
       <c r="I840" t="s">
         <v>15</v>
       </c>
       <c r="J840">
-        <v>38.226836079999998</v>
+        <v>38.208830349999999</v>
       </c>
       <c r="K840">
-        <v>140.34884120000001</v>
+        <v>140.31758120000001</v>
       </c>
     </row>
     <row r="841" spans="1:11" x14ac:dyDescent="0.4">
@@ -33036,30 +33042,59 @@
         <v>11</v>
       </c>
       <c r="C841" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D841" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E841">
+        <v>9902402</v>
+      </c>
+      <c r="F841" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H841" s="1">
+        <v>44382</v>
+      </c>
+      <c r="I841" t="s">
+        <v>15</v>
+      </c>
+      <c r="J841">
+        <v>38.226836079999998</v>
+      </c>
+      <c r="K841">
+        <v>140.34884120000001</v>
+      </c>
+    </row>
+    <row r="842" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A842" t="s">
+        <v>11</v>
+      </c>
+      <c r="C842" t="s">
         <v>1264</v>
       </c>
-      <c r="D841" t="s">
+      <c r="D842" t="s">
         <v>1265</v>
       </c>
-      <c r="E841">
+      <c r="E842">
         <v>9900042</v>
       </c>
-      <c r="F841" t="s">
+      <c r="F842" t="s">
         <v>1266</v>
       </c>
-      <c r="G841" t="s">
+      <c r="G842" t="s">
         <v>1267</v>
       </c>
-      <c r="H841" s="1">
+      <c r="H842" s="1">
         <v>44365</v>
       </c>
-      <c r="I841" t="s">
-        <v>15</v>
-      </c>
-      <c r="J841">
+      <c r="I842" t="s">
+        <v>15</v>
+      </c>
+      <c r="J842">
         <v>38.2541844</v>
       </c>
-      <c r="K841">
+      <c r="K842">
         <v>140.3428667</v>
       </c>
     </row>
